--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.553</v>
+        <v>-0.152</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.405</v>
+        <v>27.886</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.827</v>
+        <v>-0.036</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.808</v>
+        <v>28.883</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9399999999999999</v>
+        <v>-0.031</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.575</v>
+        <v>27.331</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4.97558790703895</v>
+        <v>28.16611627933005</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.72133596137379</v>
+        <v>28.16611630732939</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>14.82761877050839</v>
+        <v>28.16611631591412</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-4.915169006089268</v>
+        <v>28.16611627649107</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>11.84156511200381</v>
+        <v>28.16611630914243</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>13.25601071893872</v>
+        <v>28.16611631809891</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.1930284726776605</v>
+        <v>28.16611628269228</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.69588996460563</v>
+        <v>28.16611631798187</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.89347987415169</v>
+        <v>28.16611632594304</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>18.00009816736943</v>
+        <v>28.16611633029655</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>22.67415847131421</v>
+        <v>28.16611634194695</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.59713766208208</v>
+        <v>28.16611634592512</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.029959314251389</v>
+        <v>28.16611630441343</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.56946359481512</v>
+        <v>28.16611633499497</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>20.72285990716026</v>
+        <v>28.16611634347336</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.57178625245989</v>
+        <v>28.16611632254581</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.53716968901151</v>
+        <v>28.16611635481929</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.82412472173534</v>
+        <v>28.1661163646861</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.4645068709732421</v>
+        <v>28.16611631759245</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>14.63378480556189</v>
+        <v>28.16611635291424</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.33307006932017</v>
+        <v>28.16611636437339</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8402849224354121</v>
+        <v>28.16611632815927</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>33.58846915781172</v>
+        <v>28.166116367537</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>48.31773788144344</v>
+        <v>28.16611637733221</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>37.86341257902846</v>
+        <v>28.16611637861704</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>53.33369647880744</v>
+        <v>28.16611639377129</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>63.14242735122272</v>
+        <v>28.16611639895648</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6.481001405655073</v>
+        <v>28.16611634751319</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>39.08003509974213</v>
+        <v>28.16611638516211</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>50.02328684550732</v>
+        <v>28.16611639411476</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>16.430850489345</v>
+        <v>28.16611635610712</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>33.75242476805553</v>
+        <v>28.16611638876623</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42.16713919321066</v>
+        <v>28.16611639976609</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.0508241725797447</v>
+        <v>28.16611634994869</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>22.12502121223311</v>
+        <v>28.16611638614478</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30.49470617302476</v>
+        <v>28.16611639819143</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.643003658338234</v>
+        <v>28.16611636241677</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>43.38070301822293</v>
+        <v>28.16611640234434</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>57.01876120730054</v>
+        <v>28.16611641316781</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>54.33514428792279</v>
+        <v>28.16611641159424</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>66.47550099441379</v>
+        <v>28.16611642664652</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>75.46977478766351</v>
+        <v>28.16611643068957</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>16.20767271898309</v>
+        <v>28.16611637949948</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>54.00364522454415</v>
+        <v>28.16611641637865</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>64.39935563730728</v>
+        <v>28.16611642611487</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5.096695886087666</v>
+        <v>28.16611628758623</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>31.91207461638957</v>
+        <v>28.16611631580037</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>40.56575715725597</v>
+        <v>28.16611632393042</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.5624860951137443</v>
+        <v>28.16611628469519</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>35.15360007195699</v>
+        <v>28.16611631782021</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40.73485748665382</v>
+        <v>28.16611632623689</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3.473027586543417</v>
+        <v>28.16611629130151</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>60.97369949629194</v>
+        <v>28.16611632669882</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>67.08076390308243</v>
+        <v>28.16611633415782</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>55.45584885023398</v>
+        <v>28.16611633721616</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>57.91903654281201</v>
+        <v>28.16611634850976</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>60.28822856109809</v>
+        <v>28.16611635209593</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>7.038780025167153</v>
+        <v>28.16611631060098</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>44.22920241225334</v>
+        <v>28.16611634173076</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>53.81914486223766</v>
+        <v>28.16611634983308</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5.98340156809104</v>
+        <v>28.16611632562271</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.16139250498716</v>
+        <v>28.16611635784386</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>39.50816963373177</v>
+        <v>28.166116367177</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-3.601650218081005</v>
+        <v>28.16611632054829</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>21.89041486529304</v>
+        <v>28.16611635615972</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>32.92030346776497</v>
+        <v>28.16611636702287</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1.674294645413667</v>
+        <v>28.16611633146223</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>49.0157973028223</v>
+        <v>28.16611637070789</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>59.37449511900114</v>
+        <v>28.16611637993503</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>49.04929146857666</v>
+        <v>28.16611638068454</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>62.93626783728507</v>
+        <v>28.16611639510586</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>68.15850427966016</v>
+        <v>28.16611639980073</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2.59020858945518</v>
+        <v>28.16611634922331</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>52.4499015117418</v>
+        <v>28.16611638682026</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>58.25462549804098</v>
+        <v>28.16611639564274</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>7.125589632344496</v>
+        <v>28.16611635899189</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>37.40929353010822</v>
+        <v>28.16611639172143</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>46.70373085523748</v>
+        <v>28.16611640209836</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-3.065017222201977</v>
+        <v>28.1661163528939</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>30.77792551389653</v>
+        <v>28.16611638946304</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>39.76694432121516</v>
+        <v>28.16611640084324</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1.369859928947882</v>
+        <v>28.16611636577886</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>59.27530511202333</v>
+        <v>28.16611640566068</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>76.40384835855258</v>
+        <v>28.16611641584469</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>63.60553907839056</v>
+        <v>28.16611641377117</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>77.41484054377948</v>
+        <v>28.16611642814633</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>85.95511063272382</v>
+        <v>28.16611643184686</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.826921848136752</v>
+        <v>28.16611638120957</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>63.32318699399366</v>
+        <v>28.16611641831491</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>70.89262390347284</v>
+        <v>28.16611642785067</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>16.01432339091266</v>
+        <v>28.16611628642609</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>31.76832315169631</v>
+        <v>28.16611631443809</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.04109810181409</v>
+        <v>28.16611632246449</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>2.404145979103571</v>
+        <v>28.16611628315326</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>30.93936843227325</v>
+        <v>28.16611631610297</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>33.22374072459389</v>
+        <v>28.16611632448401</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5.472262047050457</v>
+        <v>28.1661162897676</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>57.67661150553003</v>
+        <v>28.16611632501798</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>57.07224813011472</v>
+        <v>28.16611633240823</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>44.88445677787035</v>
+        <v>28.16611633576949</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>57.29132282896275</v>
+        <v>28.16611634702054</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>54.7237244492129</v>
+        <v>28.16611635057343</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.1890124839617</v>
+        <v>28.16611630945776</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37.1533151015019</v>
+        <v>28.16611634033108</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>43.90620589743475</v>
+        <v>28.16611634836343</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>20.50561373466729</v>
+        <v>28.16611632633066</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>40.08720130151188</v>
+        <v>28.16611635845389</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.71628474754381</v>
+        <v>28.16611636767433</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>0.3899505901846716</v>
+        <v>28.16611632099416</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.18684353234963</v>
+        <v>28.16611635661326</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>34.25567301762849</v>
+        <v>28.1661163673735</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2.559623052513754</v>
+        <v>28.16611633203482</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>53.77017006685678</v>
+        <v>28.16611637128099</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>60.22354647639931</v>
+        <v>28.16611638040999</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>52.78719832465899</v>
+        <v>28.16611638128374</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>68.16266517535874</v>
+        <v>28.16611639567994</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>69.06435858471355</v>
+        <v>28.16611640036706</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>21.99282768185965</v>
+        <v>28.16611635003052</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>52.66092557728145</v>
+        <v>28.16611638743363</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>59.24845063424904</v>
+        <v>28.16611639624811</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>21.98269176099535</v>
+        <v>28.16611635969698</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.54632564183127</v>
+        <v>28.16611639230829</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>48.12307435488282</v>
+        <v>28.16611640260218</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>-0.05297334937390019</v>
+        <v>28.16611635326029</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>33.56673497299639</v>
+        <v>28.16611638980261</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.57473003585974</v>
+        <v>28.1661164010945</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>2.901316634161962</v>
+        <v>28.16611636628791</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>61.34916257959645</v>
+        <v>28.16611640614605</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>73.35086561203833</v>
+        <v>28.16611641625123</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>66.15476852103339</v>
+        <v>28.16611641430257</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>80.55242972704242</v>
+        <v>28.1661164286583</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>84.23622890356683</v>
+        <v>28.16611643234429</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>22.71467753213305</v>
+        <v>28.16611638196693</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>63.7946092415868</v>
+        <v>28.16611641883253</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>70.85500760322114</v>
+        <v>28.16611642833645</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>6.660902772420725</v>
+        <v>28.16611627879286</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>13.18301565906182</v>
+        <v>28.1661163061796</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>16.25651694663961</v>
+        <v>28.16611631453775</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-4.292374366457768</v>
+        <v>28.16611627574554</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>10.47287467553345</v>
+        <v>28.16611630769405</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>11.87794146130406</v>
+        <v>28.16611631639012</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>2.413132260422611</v>
+        <v>28.16611628171129</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.22413884302694</v>
+        <v>28.16611631622564</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.8857123823189</v>
+        <v>28.16611632398465</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.42609777650749</v>
+        <v>28.16611632851306</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.82321637371253</v>
+        <v>28.16611633989393</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>32.30579791431205</v>
+        <v>28.16611634386239</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.3017396927813</v>
+        <v>28.16611630376171</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>52.19350483931066</v>
+        <v>28.16611633358256</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>53.24483859410348</v>
+        <v>28.16611634181991</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.958677489755072</v>
+        <v>28.16611632087154</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>30.98084622605234</v>
+        <v>28.16611635240667</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>38.62489299631905</v>
+        <v>28.16611636206327</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>-1.15149391245032</v>
+        <v>28.16611631558807</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>15.18365539253538</v>
+        <v>28.16611635016712</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.94027846654248</v>
+        <v>28.16611636129913</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>0.6994843472720937</v>
+        <v>28.16611632578669</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.62196586054407</v>
+        <v>28.16611636425854</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>46.77983786024354</v>
+        <v>28.16611637385221</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>31.6721454976399</v>
+        <v>28.16611637525768</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>48.10088956039444</v>
+        <v>28.16611639009649</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>63.25257258752993</v>
+        <v>28.16611639525614</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>12.85828696336904</v>
+        <v>28.16611634520955</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>48.06198592896806</v>
+        <v>28.16611638196457</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>53.22515902923442</v>
+        <v>28.16611639068364</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>19.17547237375971</v>
+        <v>28.16611635452354</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.38902193600383</v>
+        <v>28.16611638646271</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>42.09827933752902</v>
+        <v>28.1661163971551</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-0.1842287016068518</v>
+        <v>28.16611634801071</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>20.44128583277609</v>
+        <v>28.16611638346401</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>27.65322980002204</v>
+        <v>28.16611639513265</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>5.834243962592637</v>
+        <v>28.16611636017966</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>40.10081072352447</v>
+        <v>28.16611639925404</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>56.76817834570849</v>
+        <v>28.16611640980469</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>47.6747148803752</v>
+        <v>28.16611640842831</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>57.9289076336987</v>
+        <v>28.16611642317208</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>74.81225348501926</v>
+        <v>28.16611642717569</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>23.44968832955567</v>
+        <v>28.16611637733724</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>57.8954313777199</v>
+        <v>28.16611641341958</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>64.34430253030702</v>
+        <v>28.16611642290261</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>10.34148645020688</v>
+        <v>28.16611628539202</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>27.70294195784557</v>
+        <v>28.16611631321217</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.53481540236058</v>
+        <v>28.16611632157045</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.5103891886505671</v>
+        <v>28.1661162824858</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>32.17272401771618</v>
+        <v>28.1661163150857</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>37.00159909326525</v>
+        <v>28.1661163237464</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.183618445724775</v>
+        <v>28.16611628888744</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>57.45450331231154</v>
+        <v>28.16611632399403</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>58.19894182831254</v>
+        <v>28.16611633173994</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.20778181029232</v>
+        <v>28.16611633525045</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>45.66109251868977</v>
+        <v>28.16611634665595</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>48.49246385730326</v>
+        <v>28.16611635052469</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.67291048570115</v>
+        <v>28.16611630958488</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.57376556798797</v>
+        <v>28.16611633956537</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.25392053667198</v>
+        <v>28.16611634787131</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>23.40084500039284</v>
+        <v>28.16611632880037</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>45.97444140712508</v>
+        <v>28.16611636071063</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>45.5051670283774</v>
+        <v>28.16611637027371</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2.88634922517468</v>
+        <v>28.16611632380167</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>31.70089074409963</v>
+        <v>28.16611635896292</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.9926935047658</v>
+        <v>28.16611637004772</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>7.416416510155555</v>
+        <v>28.16611633452355</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>57.30673407510818</v>
+        <v>28.16611637354095</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>61.27169747337425</v>
+        <v>28.16611638304757</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>57.46755805573027</v>
+        <v>28.16611638376348</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>69.60032887046512</v>
+        <v>28.16611639860238</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>75.83971874942836</v>
+        <v>28.16611640367005</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.22744134336097</v>
+        <v>28.16611635308213</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>59.51548988744867</v>
+        <v>28.16611638998396</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>64.37932785418248</v>
+        <v>28.16611639870778</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>24.27396526509015</v>
+        <v>28.16611636115757</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>43.91261047562182</v>
+        <v>28.16611639346564</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>46.10631269091964</v>
+        <v>28.16611640414322</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>-0.7502578536139808</v>
+        <v>28.16611635492036</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.86558655810556</v>
+        <v>28.16611639090323</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.18749986022465</v>
+        <v>28.1661164026126</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>5.949945805120873</v>
+        <v>28.16611636750902</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>59.55972100437648</v>
+        <v>28.16611640708355</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>68.11604464356401</v>
+        <v>28.1661164176276</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>63.80946531788872</v>
+        <v>28.16611641551853</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>76.07151039123139</v>
+        <v>28.16611643031596</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>82.02310155900878</v>
+        <v>28.16611643426656</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.27751124251035</v>
+        <v>28.16611638380812</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>63.72360550583926</v>
+        <v>28.16611642007229</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>72.59376008538158</v>
+        <v>28.16611642963959</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>8.299398917535088</v>
+        <v>28.16611629695031</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.24930998924507</v>
+        <v>28.16611632212303</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>32.56955499803182</v>
+        <v>28.16611632918821</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>2.57926488416016</v>
+        <v>28.16611629420866</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>34.7788002039028</v>
+        <v>28.16611632394985</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>37.90631163738695</v>
+        <v>28.16611633116532</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>6.427829564906817</v>
+        <v>28.16611630019935</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>63.37443676567888</v>
+        <v>28.166116331911</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>63.8980987459402</v>
+        <v>28.16611633840924</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>37.71130801285753</v>
+        <v>28.16611634069079</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>45.84593634886446</v>
+        <v>28.16611635061263</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>48.16936406725847</v>
+        <v>28.16611635379122</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>6.950288098946469</v>
+        <v>28.16611631688756</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>15.40063508028895</v>
+        <v>28.16611634400676</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>16.4860821166662</v>
+        <v>28.16611635106029</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>19.72200939978842</v>
+        <v>28.16611633577649</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>46.62744233992051</v>
+        <v>28.16611636472541</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>47.37823126866272</v>
+        <v>28.16611637277906</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>1.242781049264565</v>
+        <v>28.1661163312115</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>36.23648658860881</v>
+        <v>28.16611636344253</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>41.39418654998951</v>
+        <v>28.16611637275947</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>2.996384316464308</v>
+        <v>28.16611634128122</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>64.73114549597065</v>
+        <v>28.16611637664619</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>67.15480886974534</v>
+        <v>28.16611638464063</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>57.70800686576585</v>
+        <v>28.16611638478643</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>70.61478573215217</v>
+        <v>28.16611639756822</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>76.15833746249176</v>
+        <v>28.16611640173011</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>16.45267462093215</v>
+        <v>28.1661163564285</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>63.99857477099977</v>
+        <v>28.16611638989371</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>67.20370603151335</v>
+        <v>28.16611639746835</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>23.55234460728333</v>
+        <v>28.16611636399831</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>45.49841278652297</v>
+        <v>28.16611639324463</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>50.43766829267945</v>
+        <v>28.16611640227702</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-1.085862305060157</v>
+        <v>28.16611635839317</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>32.72716259788763</v>
+        <v>28.16611639128796</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>38.58519366847854</v>
+        <v>28.16611640116969</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>3.081112042500305</v>
+        <v>28.16611637013562</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>63.896797857442</v>
+        <v>28.16611640592946</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>74.57053990828437</v>
+        <v>28.16611641482749</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>65.31195867461734</v>
+        <v>28.16611641254749</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>78.36061245918914</v>
+        <v>28.16611642530168</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>83.4506724154669</v>
+        <v>28.16611642857988</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>14.10744707208198</v>
+        <v>28.16611638329216</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>66.65024856326981</v>
+        <v>28.16611641618757</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>72.73712953229096</v>
+        <v>28.16611642451265</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>4.580686542424736</v>
+        <v>28.16611628350837</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>5.66844226244659</v>
+        <v>28.16611630816173</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>8.834381825785604</v>
+        <v>28.166116315571</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-3.078774097295735</v>
+        <v>28.1661162809683</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>8.180584087869775</v>
+        <v>28.1661163098529</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>8.680173252903362</v>
+        <v>28.16611631762157</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-0.07869473868202448</v>
+        <v>28.1661162863247</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.42789359645477</v>
+        <v>28.16611631740102</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>19.27522253388991</v>
+        <v>28.16611632429098</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>19.22724743717679</v>
+        <v>28.1661163288223</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.22396204467205</v>
+        <v>28.16611633917849</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26.96095040950328</v>
+        <v>28.16611634258035</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>7.967640919488087</v>
+        <v>28.16611630564715</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10.19633093081124</v>
+        <v>28.16611633285007</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>13.69649366382068</v>
+        <v>28.16611634019055</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>9.167699712134896</v>
+        <v>28.16611632210089</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.58778147857574</v>
+        <v>28.16611635070992</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>34.66828809618278</v>
+        <v>28.16611635925194</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>-0.5081922783512596</v>
+        <v>28.16611631777668</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>17.44383655205596</v>
+        <v>28.16611634933982</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>27.13636295694871</v>
+        <v>28.16611635925005</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>0.4402027031800841</v>
+        <v>28.16611632726827</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>34.24891410760553</v>
+        <v>28.16611636222771</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>47.78451910927147</v>
+        <v>28.16611637070091</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>34.67258698433144</v>
+        <v>28.16611637248593</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>50.00437922603785</v>
+        <v>28.16611638568347</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>54.92061531228522</v>
+        <v>28.16611639011948</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>6.425896493072276</v>
+        <v>28.16611634460703</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>36.36269773351944</v>
+        <v>28.16611637816564</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>44.05552595860173</v>
+        <v>28.1661163861045</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>11.49077893303397</v>
+        <v>28.16611635258269</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.88424331532273</v>
+        <v>28.16611638152194</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>37.58429455900578</v>
+        <v>28.16611639110224</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>-0.6742237522684711</v>
+        <v>28.16611634719413</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>23.44974121748291</v>
+        <v>28.16611637952198</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>30.27482973391527</v>
+        <v>28.16611638997446</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>3.311499828906246</v>
+        <v>28.16611635842684</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>43.41558948873084</v>
+        <v>28.16611639383915</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>55.20032969054012</v>
+        <v>28.16611640323799</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>53.38232970223507</v>
+        <v>28.16611640249898</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>67.45332453123687</v>
+        <v>28.16611641561623</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>70.90831327845912</v>
+        <v>28.16611641909671</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>19.21891030617302</v>
+        <v>28.16611637380252</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>53.11754158095367</v>
+        <v>28.16611640659297</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>61.76136455280226</v>
+        <v>28.16611641521954</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>2.400096015447797</v>
+        <v>28.16611627647067</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>5.048938804861795</v>
+        <v>28.16611630385398</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>9.088389149073747</v>
+        <v>28.16611631218745</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>-3.310942106283587</v>
+        <v>28.16611627335269</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>8.615896323125003</v>
+        <v>28.166116305411</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>10.93088901561351</v>
+        <v>28.16611631402674</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>-2.063893359722467</v>
+        <v>28.16611627912714</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>13.36174795971082</v>
+        <v>28.16611631364166</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>15.33312541162352</v>
+        <v>28.16611632140524</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>8.324565009303527</v>
+        <v>28.16611632579992</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>15.41964444039303</v>
+        <v>28.1661163372229</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>19.20705593653704</v>
+        <v>28.16611634114292</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>4.326073672568153</v>
+        <v>28.1661163005891</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>6.51463842871456</v>
+        <v>28.1661163304343</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>7.329057463727485</v>
+        <v>28.16611633864563</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>-0.4668846503758104</v>
+        <v>28.16611631802769</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>3.705669577617243</v>
+        <v>28.16611634947233</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>13.39977799979356</v>
+        <v>28.16611635908848</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>-3.40746571453672</v>
+        <v>28.16611631288296</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>0.5824362386167294</v>
+        <v>28.16611634748829</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.43363074111196</v>
+        <v>28.16611635855186</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>-6.722176520793063</v>
+        <v>28.16611632293585</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>5.622298519804939</v>
+        <v>28.16611636134285</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>22.9164471118569</v>
+        <v>28.16611637096131</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>7.195204669495185</v>
+        <v>28.1661163724701</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.55034046290854</v>
+        <v>28.16611638734057</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>41.50815495981285</v>
+        <v>28.16611639258783</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-4.999823446932027</v>
+        <v>28.16611634224744</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>7.119771697602239</v>
+        <v>28.16611637891351</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>11.71726838245127</v>
+        <v>28.16611638761491</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>2.552786190892739</v>
+        <v>28.16611635125173</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>7.323287463036465</v>
+        <v>28.16611638311834</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>22.89106384165573</v>
+        <v>28.16611639386158</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-5.58146513466102</v>
+        <v>28.16611634501939</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>4.936984040188559</v>
+        <v>28.16611638048479</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>18.72604366785582</v>
+        <v>28.16611639220016</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-3.890291972700325</v>
+        <v>28.16611635700631</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>14.10899610717163</v>
+        <v>28.16611639600192</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>40.50218245285561</v>
+        <v>28.16611640665889</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>20.84527245947585</v>
+        <v>28.16611640533305</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>41.01861431643417</v>
+        <v>28.16611642024613</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>59.96029017910497</v>
+        <v>28.16611642429484</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-2.666044789025417</v>
+        <v>28.16611637403153</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>19.08055249548947</v>
+        <v>28.16611641009787</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>27.80124163973945</v>
+        <v>28.16611641966506</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>11.14345189824438</v>
+        <v>28.16611630036353</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>21.22201804412813</v>
+        <v>28.16611632693972</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>37.35248600148418</v>
+        <v>28.16611633468575</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3.936889987221047</v>
+        <v>28.16611629857882</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.26778390675613</v>
+        <v>28.16611633012678</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>45.50499932599121</v>
+        <v>28.16611633802058</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>6.467161108374931</v>
+        <v>28.16611630525095</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>64.21513157645772</v>
+        <v>28.16611633880845</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>69.88019838700872</v>
+        <v>28.16611634587528</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>54.0517410531514</v>
+        <v>28.16611634826636</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>61.41415342530065</v>
+        <v>28.16611635888302</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>61.68489817098471</v>
+        <v>28.16611636225906</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>37.96977264142251</v>
+        <v>28.16611632324709</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>44.38993128944053</v>
+        <v>28.16611635226026</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>65.7683959219919</v>
+        <v>28.1661163599642</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>14.65451534849033</v>
+        <v>28.16611633597255</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.30579311124932</v>
+        <v>28.1661163664039</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>35.0145042174359</v>
+        <v>28.16611637509906</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-2.823427107635485</v>
+        <v>28.16611633208402</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.80758109582648</v>
+        <v>28.16611636603204</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.5275760175416</v>
+        <v>28.16611637603558</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-0.06772802298558034</v>
+        <v>28.16611634276351</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>48.13477130603435</v>
+        <v>28.16611638000117</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>53.92707532018643</v>
+        <v>28.16611638855371</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>44.40707967411691</v>
+        <v>28.16611638894379</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>55.97883342084948</v>
+        <v>28.16611640252968</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>57.19425336084723</v>
+        <v>28.16611640693151</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>22.16028384598644</v>
+        <v>28.16611635927391</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>48.76989677066909</v>
+        <v>28.1661163946037</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>52.02549206819423</v>
+        <v>28.16611640277468</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>17.50853847926355</v>
+        <v>28.16611636616868</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.86788966039146</v>
+        <v>28.16611639694171</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>41.88799573831272</v>
+        <v>28.16611640676623</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>-0.07122372953282863</v>
+        <v>28.16611636121262</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>32.31982150206311</v>
+        <v>28.16611639591221</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.94665088639341</v>
+        <v>28.16611640653594</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>2.610239099262277</v>
+        <v>28.16611637364595</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>56.05617173278559</v>
+        <v>28.16611641133754</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>70.97266049556241</v>
+        <v>28.16611642091904</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>59.79932160142619</v>
+        <v>28.16611641860055</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>68.34614518179211</v>
+        <v>28.16611643214753</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>75.19971389145275</v>
+        <v>28.16611643563144</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>23.36350798911587</v>
+        <v>28.16611638808591</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>60.81217594385808</v>
+        <v>28.16611642274768</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>71.93202097642987</v>
+        <v>28.16611643172316</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>4.659203076254805</v>
+        <v>28.16611627693625</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.128621852544153</v>
+        <v>28.16611630157067</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>11.66956231163943</v>
+        <v>28.16611630895688</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-4.133929092827959</v>
+        <v>28.16611627375333</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>1.408948539233087</v>
+        <v>28.16611630244635</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>5.150141138383571</v>
+        <v>28.16611631018935</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>-0.4012805157548449</v>
+        <v>28.16611627866065</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>13.16433989609607</v>
+        <v>28.16611630954096</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>16.57343270304559</v>
+        <v>28.16611631641303</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>12.19054292394569</v>
+        <v>28.16611632115713</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>16.00817018887089</v>
+        <v>28.16611633154983</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>19.57555753891349</v>
+        <v>28.16611633484913</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>3.399725594967887</v>
+        <v>28.16611629815612</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>5.634731693291105</v>
+        <v>28.16611632554194</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>10.15676029027698</v>
+        <v>28.16611633281777</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>2.275352093664228</v>
+        <v>28.16611631411553</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>13.64501119293239</v>
+        <v>28.16611634252995</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.13900415205736</v>
+        <v>28.16611635124043</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-3.586457454950057</v>
+        <v>28.1661163092567</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>5.048379592875932</v>
+        <v>28.16611634046139</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>19.79552001214509</v>
+        <v>28.16611635054594</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>-2.77070639796402</v>
+        <v>28.16611631825485</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>19.45674340699075</v>
+        <v>28.16611635284933</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>33.40283404180882</v>
+        <v>28.16611636151766</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>16.76288872708749</v>
+        <v>28.16611636342789</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.41689735423937</v>
+        <v>28.16611637677306</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>39.19269162571877</v>
+        <v>28.16611638119758</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-3.086954102220066</v>
+        <v>28.16611633596444</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>19.89131551317782</v>
+        <v>28.16611636943197</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.49608218907474</v>
+        <v>28.16611637752799</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>9.791232559133125</v>
+        <v>28.16611634533577</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>20.45486227298049</v>
+        <v>28.16611637421164</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>33.33620881701506</v>
+        <v>28.1661163838894</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>-1.026825475427138</v>
+        <v>28.16611633952385</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>11.54712525641125</v>
+        <v>28.16611637157094</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>24.38981020997664</v>
+        <v>28.1661163822032</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>4.463958173458781</v>
+        <v>28.16611635033169</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>31.57770352369189</v>
+        <v>28.16611638550337</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>46.80243224284951</v>
+        <v>28.16611639502526</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>35.87916727843707</v>
+        <v>28.1661163944573</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>44.1913188592314</v>
+        <v>28.16611640769154</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>62.98524859675116</v>
+        <v>28.16611641114954</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>12.19562355771275</v>
+        <v>28.16611636599684</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>37.2547268104796</v>
+        <v>28.16611639889648</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>47.50172956855249</v>
+        <v>28.16611640756028</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-3.231739990418642</v>
+        <v>28.16611628152887</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>-2.119188066333102</v>
+        <v>28.16611630796202</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>3.389878345279325</v>
+        <v>28.16611631548771</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-6.021815129921539</v>
+        <v>28.16611627781968</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-1.074464707383811</v>
+        <v>28.16611630879886</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>2.119793839974712</v>
+        <v>28.16611631667188</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-9.776243839933766</v>
+        <v>28.16611628356791</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>9.984888818409541</v>
+        <v>28.16611631676831</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>11.51393901800473</v>
+        <v>28.16611632374147</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>4.253428037498779</v>
+        <v>28.16611632744016</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>5.702694505565695</v>
+        <v>28.16611633805141</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>11.10351984803207</v>
+        <v>28.16611634146486</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-7.577735456059113</v>
+        <v>28.16611630276717</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-3.950592269510256</v>
+        <v>28.16611633177702</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-2.579880514703575</v>
+        <v>28.16611633931</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.6804065719814</v>
+        <v>28.16611632310634</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>31.48309856911224</v>
+        <v>28.16611635355141</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>35.10637826935318</v>
+        <v>28.16611636230029</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>2.183770914906574</v>
+        <v>28.16611631769329</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>22.74712585141123</v>
+        <v>28.16611635136671</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>30.27714454072844</v>
+        <v>28.1661163616064</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>3.50256965716552</v>
+        <v>28.16611632790869</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>45.97994177369232</v>
+        <v>28.16611636505917</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>51.17368643410579</v>
+        <v>28.1661163737874</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>43.32043480474746</v>
+        <v>28.16611637487619</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>53.51856539727886</v>
+        <v>28.16611638853785</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>58.18140611933521</v>
+        <v>28.16611639302143</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>14.69494908928653</v>
+        <v>28.16611634531987</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>46.4698914580009</v>
+        <v>28.16611638072859</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>50.5565090338211</v>
+        <v>28.16611638907247</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>18.46599680796994</v>
+        <v>28.16611635529824</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>35.28726862030614</v>
+        <v>28.16611638628017</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>44.89396864098994</v>
+        <v>28.16611639598576</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>0.09281203651812575</v>
+        <v>28.16611634875238</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.1004547975503</v>
+        <v>28.16611638336752</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>35.29670734437781</v>
+        <v>28.16611639405864</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>2.196036824743192</v>
+        <v>28.16611636090118</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>52.81631355390323</v>
+        <v>28.16611639870949</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>63.7063506459463</v>
+        <v>28.16611640830641</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>57.78313916738358</v>
+        <v>28.1661164067016</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>69.82539302754014</v>
+        <v>28.16611642034286</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>74.67168441799711</v>
+        <v>28.16611642386065</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>13.7086356771371</v>
+        <v>28.16611637598127</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>58.8657642373536</v>
+        <v>28.16611641100793</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>61.87241999745318</v>
+        <v>28.16611641996417</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>9.103249761785028</v>
+        <v>28.166116275192</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>10.29292316432295</v>
+        <v>28.1661163011199</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>14.79404163211915</v>
+        <v>28.16611630883641</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>0.4030238341437631</v>
+        <v>28.16611627156193</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>8.047423656212615</v>
+        <v>28.16611630189938</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.2384074751118</v>
+        <v>28.16611631001433</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>7.13724982711248</v>
+        <v>28.16611627697194</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>21.30455269252372</v>
+        <v>28.16611630963778</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>23.02512847025345</v>
+        <v>28.16611631676521</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>17.59359630711832</v>
+        <v>28.16611632123779</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>23.28671244130101</v>
+        <v>28.16611633192456</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.86152877878308</v>
+        <v>28.1661163352978</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>9.863715552360016</v>
+        <v>28.16611629712267</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>13.22090946891637</v>
+        <v>28.1661163258232</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>19.80163229930216</v>
+        <v>28.1661163334802</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1.441229210362355</v>
+        <v>28.16611631226394</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>6.75574506220797</v>
+        <v>28.1661163419751</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>16.69324054642152</v>
+        <v>28.16611635108281</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-4.807175259691952</v>
+        <v>28.16611630651812</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>-0.4363256210643662</v>
+        <v>28.166116339314</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>11.7347507297535</v>
+        <v>28.16611634984288</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>-5.645114564979277</v>
+        <v>28.16611631605549</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>8.160472122676886</v>
+        <v>28.16611635236674</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>24.82987128244103</v>
+        <v>28.16611636142488</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>7.474259041895412</v>
+        <v>28.1661163632437</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>18.87838629504841</v>
+        <v>28.16611637690043</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.63232433615131</v>
+        <v>28.16611638150416</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-3.375415448906335</v>
+        <v>28.16611633458071</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>10.18381631312501</v>
+        <v>28.1661163693957</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>20.40977348022767</v>
+        <v>28.16611637797016</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>15.26061112356478</v>
+        <v>28.16611634718982</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>23.1520867625022</v>
+        <v>28.16611637751622</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>32.42270637734141</v>
+        <v>28.1661163874755</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-0.9411562228523316</v>
+        <v>28.16611634037938</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>12.83610806399391</v>
+        <v>28.16611637422015</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>21.24632915979819</v>
+        <v>28.16611638509401</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>4.442672422317784</v>
+        <v>28.16611635211122</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>31.19275916051571</v>
+        <v>28.16611638922572</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>46.17289724601464</v>
+        <v>28.16611639900712</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.32611728165335</v>
+        <v>28.16611639823576</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>42.74817679803516</v>
+        <v>28.16611641177321</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>54.11825414085827</v>
+        <v>28.16611641533544</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>14.79135563784637</v>
+        <v>28.16611636829431</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>34.02015788528132</v>
+        <v>28.16611640274971</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>40.91160740952991</v>
+        <v>28.16611641181751</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>0.8636283955978783</v>
+        <v>28.16611627145699</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>1.264876762183267</v>
+        <v>28.1661162959473</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>0.7688317920830947</v>
+        <v>28.16611630315288</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2.966463863842932</v>
+        <v>28.1661162672776</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-2.003643167150301</v>
+        <v>28.16611629588104</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-1.200926277454357</v>
+        <v>28.16611630345689</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>1.387952281956718</v>
+        <v>28.1661162718841</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>6.565008103419787</v>
+        <v>28.16611630267306</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>3.247091043925092</v>
+        <v>28.16611630936018</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>1.85379950044566</v>
+        <v>28.16611631429142</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>1.19057102550477</v>
+        <v>28.16611632432397</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>3.012983098638234</v>
+        <v>28.16611632755599</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>0.944359927557386</v>
+        <v>28.16611629182986</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1.805155210316524</v>
+        <v>28.16611631884631</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>0.05414514026737649</v>
+        <v>28.16611632602237</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-0.4330767939394526</v>
+        <v>28.16611630736917</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>1.812109308915574</v>
+        <v>28.16611633550038</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>3.793075314238948</v>
+        <v>28.16611634397349</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-2.894203728999099</v>
+        <v>28.16611630126205</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-4.109393900827182</v>
+        <v>28.16611633226072</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>1.399820016784268</v>
+        <v>28.16611634210305</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-5.821814134548127</v>
+        <v>28.16611630983882</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-0.1589816166143621</v>
+        <v>28.16611634416621</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>4.201725519749655</v>
+        <v>28.16611635261912</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-1.108942721734866</v>
+        <v>28.16611635505517</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>2.46341391824787</v>
+        <v>28.16611636792855</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>5.93759268944908</v>
+        <v>28.16611637225384</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>-3.816103673938841</v>
+        <v>28.16611632813626</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>-0.3645610689235887</v>
+        <v>28.16611636100749</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>0.6151526595189374</v>
+        <v>28.16611636900574</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>16.20546871460633</v>
+        <v>28.16611634135333</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>19.41742286053301</v>
+        <v>28.16611637006334</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>22.93310397849131</v>
+        <v>28.16611637940024</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>1.228217675818698</v>
+        <v>28.16611633419953</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>8.304377720029823</v>
+        <v>28.16611636615779</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>12.66195695207139</v>
+        <v>28.16611637642656</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>6.688387189577146</v>
+        <v>28.16611634494643</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>22.49101105428108</v>
+        <v>28.16611638002398</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.67300083023284</v>
+        <v>28.16611638925812</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.50289105374848</v>
+        <v>28.16611638917761</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.42869659758376</v>
+        <v>28.16611640198182</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>34.65562138830365</v>
+        <v>28.16611640535639</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>14.25420205398566</v>
+        <v>28.16611636096949</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>22.17882008595595</v>
+        <v>28.16611639349738</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.30550743444429</v>
+        <v>28.16611640206917</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.09860403700005</v>
+        <v>28.16611628064958</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>27.66161493334881</v>
+        <v>28.16611630849632</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>35.10399092233716</v>
+        <v>28.1661163169774</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>1.483389428890778</v>
+        <v>28.16611627744625</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>20.01995452848683</v>
+        <v>28.16611630993627</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.13394381483446</v>
+        <v>28.16611631869284</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>11.77876487425608</v>
+        <v>28.16611628384552</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>41.49939950577953</v>
+        <v>28.16611631896841</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>45.76819886392593</v>
+        <v>28.16611632680056</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>37.98710014096321</v>
+        <v>28.16611633105124</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>45.33614937159498</v>
+        <v>28.1661163426648</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>47.66555964653639</v>
+        <v>28.16611634651255</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>27.37725131191552</v>
+        <v>28.16611630551408</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>42.17950611181162</v>
+        <v>28.1661163359589</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>47.20584368221382</v>
+        <v>28.16611634427147</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>12.61471505062013</v>
+        <v>28.16611632096285</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>22.54208449283484</v>
+        <v>28.16611635286617</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.62655529000145</v>
+        <v>28.16611636259688</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-3.225266278485513</v>
+        <v>28.16611631552166</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>5.731972746464056</v>
+        <v>28.16611635050785</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>10.91839360982718</v>
+        <v>28.16611636171032</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>0.3745021407348119</v>
+        <v>28.166116326095</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>22.96250534533763</v>
+        <v>28.16611636508499</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>31.35174098346302</v>
+        <v>28.16611637472112</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.63548620137921</v>
+        <v>28.16611637616521</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>32.26989437924684</v>
+        <v>28.16611639117822</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>37.7283198397268</v>
+        <v>28.1661163962413</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>11.83531390497715</v>
+        <v>28.1661163457085</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.64053420134767</v>
+        <v>28.16611638290929</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>34.20301855769626</v>
+        <v>28.1661163917268</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.31530710170346</v>
+        <v>28.16611635517361</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>33.39539711178534</v>
+        <v>28.16611638746582</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>43.16025307860912</v>
+        <v>28.16611639833508</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>0.1233984328909195</v>
+        <v>28.16611634852589</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>17.41667486514862</v>
+        <v>28.16611638440463</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>22.65801082221567</v>
+        <v>28.16611639618502</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>8.201479540543858</v>
+        <v>28.16611636108643</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>40.48706667993362</v>
+        <v>28.16611640064973</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>51.24318721558905</v>
+        <v>28.16611641131524</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>50.95602333808584</v>
+        <v>28.16611640988081</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>57.47426208036116</v>
+        <v>28.16611642477579</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>62.57266286271373</v>
+        <v>28.16611642872348</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>24.10629312410592</v>
+        <v>28.16611637836074</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>48.34809711035497</v>
+        <v>28.16611641481538</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>52.91041590489918</v>
+        <v>28.16611642441013</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>15.07171918490108</v>
+        <v>28.16611628592236</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.76026552388704</v>
+        <v>28.16611631247586</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>40.75683717906985</v>
+        <v>28.16611632020719</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.276451435872037</v>
+        <v>28.16611628288676</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>32.31207669759372</v>
+        <v>28.16611631398601</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>37.65132323031193</v>
+        <v>28.16611632204472</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.33957359856725</v>
+        <v>28.16611628894085</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>55.62731501761704</v>
+        <v>28.16611632228258</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>61.74871932677405</v>
+        <v>28.16611632940818</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>55.09933633794611</v>
+        <v>28.16611633295904</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>57.61091465754829</v>
+        <v>28.16611634378417</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>63.23870139339125</v>
+        <v>28.16611634717433</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>14.388656027774</v>
+        <v>28.16611630794565</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>42.58022242460407</v>
+        <v>28.1661163373934</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>53.09179760884525</v>
+        <v>28.16611634511604</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>10.40338147792723</v>
+        <v>28.16611632186051</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.7569063516773</v>
+        <v>28.16611635219004</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>34.85748843746776</v>
+        <v>28.16611636115901</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>-0.6159568672223408</v>
+        <v>28.16611631681793</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.33313501021625</v>
+        <v>28.16611635026872</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.13080865000395</v>
+        <v>28.16611636070274</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-0.1800769470390087</v>
+        <v>28.16611632696712</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.20314244691775</v>
+        <v>28.16611636395682</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>47.07497242314636</v>
+        <v>28.16611637284205</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>40.71281886617357</v>
+        <v>28.1661163740669</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>51.05752060724923</v>
+        <v>28.16611638784969</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>54.86608392916581</v>
+        <v>28.16611639234413</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>5.552455542873037</v>
+        <v>28.16611634445468</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>38.92506620627407</v>
+        <v>28.16611637996825</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>47.89171449153959</v>
+        <v>28.1661163884821</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>9.630948195433117</v>
+        <v>28.16611635434367</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>30.61525189681338</v>
+        <v>28.16611638521275</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>40.21479387387264</v>
+        <v>28.1661163951474</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-2.504884173559599</v>
+        <v>28.1661163483271</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.62712871702707</v>
+        <v>28.1661163827298</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.67208575769736</v>
+        <v>28.16611639366846</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-1.218460624537894</v>
+        <v>28.16611636039098</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>45.57926335976616</v>
+        <v>28.16611639803674</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>60.90764121260362</v>
+        <v>28.16611640780963</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>54.56674875532966</v>
+        <v>28.16611640633508</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>64.88827756915045</v>
+        <v>28.16611642006053</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>74.62392628110109</v>
+        <v>28.16611642359287</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>4.809433553713625</v>
+        <v>28.16611637561845</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>50.21642856822891</v>
+        <v>28.16611641072402</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>60.12096793339585</v>
+        <v>28.16611641985235</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>12.8391900513222</v>
+        <v>28.16611628634396</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>26.76436352682563</v>
+        <v>28.16611631544636</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.83385789848815</v>
+        <v>28.16611632421816</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>3.987405245633358</v>
+        <v>28.16611628391039</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>38.57515065332095</v>
+        <v>28.16611631805716</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>41.09566073815645</v>
+        <v>28.16611632711039</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>9.916417991121474</v>
+        <v>28.16611629075224</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>56.74670362629989</v>
+        <v>28.16611632744943</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>61.15952769475746</v>
+        <v>28.16611633553399</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>43.45059940756551</v>
+        <v>28.16611633898417</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>45.63983414718771</v>
+        <v>28.16611635085195</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>49.75597965333351</v>
+        <v>28.1661163548631</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>22.71528096512468</v>
+        <v>28.16611631191719</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>38.07347400885291</v>
+        <v>28.16611634362707</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>53.66545887078162</v>
+        <v>28.16611635233085</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>12.64991531222179</v>
+        <v>28.16611632856702</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>31.72565771224393</v>
+        <v>28.16611636195168</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>35.83886055848662</v>
+        <v>28.16611637190433</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>-1.626242393699837</v>
+        <v>28.16611632385457</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>22.2221048597254</v>
+        <v>28.16611636058925</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>27.0887022657839</v>
+        <v>28.16611637212121</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>0.2723320005713532</v>
+        <v>28.16611633507655</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>43.31284016271502</v>
+        <v>28.16611637583465</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>51.77338645112992</v>
+        <v>28.16611638569077</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>42.77591699936544</v>
+        <v>28.16611638641217</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>53.95116947210656</v>
+        <v>28.16611640179309</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>56.90151477322998</v>
+        <v>28.16611640702423</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>9.346453945419789</v>
+        <v>28.16611635410255</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.72115254473952</v>
+        <v>28.16611639293979</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>50.54065888363762</v>
+        <v>28.16611640205059</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>14.13728392405179</v>
+        <v>28.16611636227368</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>32.81062185057699</v>
+        <v>28.16611639605245</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>39.51682913880339</v>
+        <v>28.16611640719417</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-1.645474476463807</v>
+        <v>28.16611635634387</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.46596682104189</v>
+        <v>28.16611639395904</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>32.87617895924812</v>
+        <v>28.16611640612351</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1.065726805334197</v>
+        <v>28.16611636947616</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>50.21969618164344</v>
+        <v>28.16611641078199</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>62.32064549500383</v>
+        <v>28.16611642172999</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>56.91525155423874</v>
+        <v>28.16611641947545</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>67.53417139404328</v>
+        <v>28.16611643480351</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>73.01003619114481</v>
+        <v>28.16611643889057</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>11.65507981503492</v>
+        <v>28.16611638616079</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>54.8432216884553</v>
+        <v>28.16611642426622</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>64.65081288077772</v>
+        <v>28.16611643423948</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>21.50368262836353</v>
+        <v>28.16611628602328</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.61325038252609</v>
+        <v>28.16611631344707</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>38.01345597196622</v>
+        <v>28.16611632192368</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>19.39312851223546</v>
+        <v>28.16611628398148</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>48.70831793206781</v>
+        <v>28.16611631607629</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>51.66483674999746</v>
+        <v>28.1661163248251</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>19.04727992402808</v>
+        <v>28.16611628994651</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>53.92478932669453</v>
+        <v>28.16611632460056</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>59.87571044681984</v>
+        <v>28.16611633242966</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>43.55116992106493</v>
+        <v>28.16611633612226</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>49.92757954248155</v>
+        <v>28.16611634750934</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>51.85751829819353</v>
+        <v>28.16611635139463</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>33.77350767625908</v>
+        <v>28.16611631079251</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>37.6697473875227</v>
+        <v>28.16611634063818</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>50.5766821170136</v>
+        <v>28.16611634904933</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.63755105240335</v>
+        <v>28.16611632777825</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>34.28096418815812</v>
+        <v>28.16611635922682</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>39.58362140464399</v>
+        <v>28.16611636892927</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.46488010903474</v>
+        <v>28.16611632385412</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>44.55567441346626</v>
+        <v>28.16611635834214</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>48.65985677805757</v>
+        <v>28.16611636949022</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>9.753712920507303</v>
+        <v>28.16611633378924</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>42.59935162333745</v>
+        <v>28.16611637227775</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>52.86597714298618</v>
+        <v>28.16611638185939</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>42.46887901083662</v>
+        <v>28.16611638265437</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>55.02332649788897</v>
+        <v>28.16611639744485</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>58.97518900045327</v>
+        <v>28.16611640254385</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>20.8080834941667</v>
+        <v>28.16611635229977</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>43.5199286315373</v>
+        <v>28.16611638897251</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>52.20873628967216</v>
+        <v>28.1661163977353</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>23.08014184703939</v>
+        <v>28.16611636012356</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>33.9191531187069</v>
+        <v>28.16611639196261</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.07498666126752</v>
+        <v>28.16611640274859</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>27.19443539551977</v>
+        <v>28.16611635498952</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>48.26648185307882</v>
+        <v>28.16611639030017</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>50.16087817790891</v>
+        <v>28.16611640202487</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>12.23438770683425</v>
+        <v>28.16611636680476</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>51.74109423385451</v>
+        <v>28.16611640584281</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>63.93598138957495</v>
+        <v>28.16611641642169</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>60.81105721488534</v>
+        <v>28.16611641444907</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>69.94319931938867</v>
+        <v>28.16611642915449</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>74.91828786839453</v>
+        <v>28.16611643311812</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>24.03139276932099</v>
+        <v>28.16611638309723</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>52.97698746982233</v>
+        <v>28.16611641907544</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>66.49853266543926</v>
+        <v>28.16611642863974</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>6.267097016132222</v>
+        <v>28.16611628326835</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.44103581448524</v>
+        <v>28.1661163118318</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>33.9232437223145</v>
+        <v>28.16611632004116</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>-0.3549306976117101</v>
+        <v>28.16611628041599</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.37402031356196</v>
+        <v>28.16611631377911</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.69316486239821</v>
+        <v>28.16611632230014</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>1.886618099731713</v>
+        <v>28.16611628697708</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>49.39868535865412</v>
+        <v>28.16611632274704</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>53.83481190728094</v>
+        <v>28.16611633037922</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>49.61915378534452</v>
+        <v>28.16611633408195</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>53.56324554231141</v>
+        <v>28.16611634558226</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>56.1487587407413</v>
+        <v>28.16611634927323</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>3.107942678846172</v>
+        <v>28.16611630713071</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>37.98921262556851</v>
+        <v>28.16611633868873</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>45.071219706383</v>
+        <v>28.16611634688698</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>8.253807894485302</v>
+        <v>28.16611632254225</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>27.42599312969211</v>
+        <v>28.16611635515851</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>30.813997988712</v>
+        <v>28.16611636459387</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>-1.130430476511563</v>
+        <v>28.16611631768577</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>20.66543765024685</v>
+        <v>28.16611635361093</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>24.35635853975681</v>
+        <v>28.16611636456163</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>-0.9095714634798426</v>
+        <v>28.16611632858234</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>38.88802087217019</v>
+        <v>28.16611636828467</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>44.16312558477379</v>
+        <v>28.16611637768922</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>41.36925927588779</v>
+        <v>28.16611637889962</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>49.61979519428657</v>
+        <v>28.1661163936183</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>50.97930094037626</v>
+        <v>28.16611639854165</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>0.4863126205761823</v>
+        <v>28.16611634701837</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>39.03538026802964</v>
+        <v>28.16611638515797</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>44.93102259883194</v>
+        <v>28.16611639407931</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>8.772052823968217</v>
+        <v>28.16611635596889</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.63561019752867</v>
+        <v>28.16611638904374</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>37.21674861166993</v>
+        <v>28.16611639962563</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>-1.7817969064998</v>
+        <v>28.16611634994257</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.35391960152473</v>
+        <v>28.16611638675509</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>30.19800260679116</v>
+        <v>28.16611639834357</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>-2.003493845823829</v>
+        <v>28.16611636276608</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>45.50702543059668</v>
+        <v>28.1661164030311</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>57.00369682458657</v>
+        <v>28.16611641349837</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>56.9841553837061</v>
+        <v>28.16611641182471</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>66.75916562158835</v>
+        <v>28.16611642653324</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>72.72913503318296</v>
+        <v>28.16611643038141</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>0.4308458050595512</v>
+        <v>28.16611637886514</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>49.22971706853232</v>
+        <v>28.16611641640187</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>58.00851774919698</v>
+        <v>28.16611642607644</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>9.292656910012308</v>
+        <v>28.16611627970844</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>11.17757371342227</v>
+        <v>28.16611630508481</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>15.79177249612037</v>
+        <v>28.16611631268633</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>-1.842700052134841</v>
+        <v>28.16611627682238</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>11.36384336956545</v>
+        <v>28.16611630636242</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>12.4339183866215</v>
+        <v>28.16611631430137</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>7.520956938248734</v>
+        <v>28.16611628220426</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>21.25783806389707</v>
+        <v>28.16611631413214</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.08374077508288</v>
+        <v>28.16611632121193</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>19.21788525338921</v>
+        <v>28.16611632574654</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.96597203937558</v>
+        <v>28.16611633630717</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.41889868663151</v>
+        <v>28.16611633976222</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>5.668497505312128</v>
+        <v>28.1661163022464</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>12.61223973912069</v>
+        <v>28.16611633013125</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.3310158846069</v>
+        <v>28.1661163377167</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>6.827609584057432</v>
+        <v>28.16611631943803</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>21.06876825477507</v>
+        <v>28.16611634879872</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.25738591547398</v>
+        <v>28.16611635758681</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>-2.040090909355673</v>
+        <v>28.16611631466377</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>13.14047857696091</v>
+        <v>28.16611634680404</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>21.39086844350899</v>
+        <v>28.16611635701175</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>-0.8050046646058178</v>
+        <v>28.16611632412404</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.18764765275658</v>
+        <v>28.16611635988427</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>39.98081727082129</v>
+        <v>28.16611636865412</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.95550444974266</v>
+        <v>28.16611637033244</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>40.31087415363024</v>
+        <v>28.16611638408136</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>45.46646051388157</v>
+        <v>28.16611638862136</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>0.321228059225966</v>
+        <v>28.16611634206912</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.14794041996115</v>
+        <v>28.16611637644078</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>37.02170817307555</v>
+        <v>28.16611638450065</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>13.65149245751452</v>
+        <v>28.16611635069549</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>27.39960771690541</v>
+        <v>28.16611638048239</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>35.86829692085102</v>
+        <v>28.16611639029825</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>-0.2372556031109312</v>
+        <v>28.16611634491194</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>22.12168251661705</v>
+        <v>28.16611637792847</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.87214891485588</v>
+        <v>28.16611638867403</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>4.439260511627548</v>
+        <v>28.16611635613732</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>36.53275909229679</v>
+        <v>28.1661163924651</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>50.70280339227098</v>
+        <v>28.16611640215739</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>45.78422226512687</v>
+        <v>28.16611640114217</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>54.71049251994206</v>
+        <v>28.16611641477248</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>58.88471462547842</v>
+        <v>28.16611641832477</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>10.23309916213176</v>
+        <v>28.16611637191495</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>42.45303858698225</v>
+        <v>28.16611640562286</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.77427272564225</v>
+        <v>28.16611641437256</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>9.185581310214836</v>
+        <v>28.16611628399047</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>11.90282824573184</v>
+        <v>28.16611631123737</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>20.88095897438754</v>
+        <v>28.16611631969647</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-1.069220991852287</v>
+        <v>28.16611628181637</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>19.12860297846114</v>
+        <v>28.1661163136575</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>24.37714589758218</v>
+        <v>28.16611632243091</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>6.551735291521496</v>
+        <v>28.1661162877215</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>31.04106089003718</v>
+        <v>28.16611632213073</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>38.07646590522123</v>
+        <v>28.16611632995556</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.10966233952367</v>
+        <v>28.16611633394311</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>34.00056912886922</v>
+        <v>28.16611634529626</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>37.45981181199734</v>
+        <v>28.16611634918497</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>13.97463168447207</v>
+        <v>28.16611630875534</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>20.120317382168</v>
+        <v>28.16611633851988</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>31.16783053688698</v>
+        <v>28.16611634686189</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>6.847762049591678</v>
+        <v>28.16611632541824</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>18.63243169558002</v>
+        <v>28.16611635669079</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.98981512209839</v>
+        <v>28.16611636641707</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>2.671303759860329</v>
+        <v>28.16611632130412</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>14.91692551889581</v>
+        <v>28.16611635557415</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>27.2394996234982</v>
+        <v>28.16611636677692</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>-2.585354332726816</v>
+        <v>28.16611633121014</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>23.42568642064423</v>
+        <v>28.166116369464</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>40.32835807143081</v>
+        <v>28.16611637906816</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.17048568901606</v>
+        <v>28.16611638006849</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>40.22376662562888</v>
+        <v>28.16611639483065</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>48.73058181977093</v>
+        <v>28.16611639995446</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-0.09587503321977309</v>
+        <v>28.16611634990164</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.90396417398849</v>
+        <v>28.16611638646411</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>37.15930698105237</v>
+        <v>28.16611639519972</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>8.640528122268742</v>
+        <v>28.16611635778387</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>18.19465030726996</v>
+        <v>28.16611638945088</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.88858836199726</v>
+        <v>28.16611640024817</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-0.1520875450851058</v>
+        <v>28.16611635246575</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>17.15442674037152</v>
+        <v>28.16611638756438</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.66993641091118</v>
+        <v>28.16611639933254</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-1.569630396944763</v>
+        <v>28.16611636424995</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>30.97750836360925</v>
+        <v>28.16611640305989</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>47.86177722814907</v>
+        <v>28.16611641364211</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>44.07252000649359</v>
+        <v>28.16611641190282</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>53.23334485679483</v>
+        <v>28.16611642656623</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>61.42396827686746</v>
+        <v>28.16611643054069</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>4.002473140169442</v>
+        <v>28.16611638072473</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>33.8435755063125</v>
+        <v>28.16611641658841</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>50.83226806323565</v>
+        <v>28.16611642610593</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>18.01881122671525</v>
+        <v>28.16611629394509</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>27.74024260653128</v>
+        <v>28.16611632005097</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.21279450608867</v>
+        <v>28.16611632784301</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>5.44427952154722</v>
+        <v>28.1661162917762</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>42.4059690166138</v>
+        <v>28.16611632264454</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>43.98740805727354</v>
+        <v>28.16611633068382</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>15.15492327631654</v>
+        <v>28.16611629801077</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>62.39816288172649</v>
+        <v>28.16611633103805</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>64.85041503164673</v>
+        <v>28.16611633823023</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>45.86915423468519</v>
+        <v>28.16611634146718</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>55.09785336897993</v>
+        <v>28.16611635214221</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>56.64545240915004</v>
+        <v>28.16611635561595</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>33.52435676746312</v>
+        <v>28.16611631717415</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>39.6918368533566</v>
+        <v>28.16611634550285</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>62.13785504249292</v>
+        <v>28.16611635350777</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>23.1324554821127</v>
+        <v>28.16611633111018</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.72483983925878</v>
+        <v>28.16611636097986</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>39.04590050830028</v>
+        <v>28.16611636989419</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>2.013952896079569</v>
+        <v>28.16611632674092</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>27.23906459517201</v>
+        <v>28.16611635993921</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>31.03998326944306</v>
+        <v>28.16611637019126</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>3.393553180223162</v>
+        <v>28.16611633699698</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>44.77766687749865</v>
+        <v>28.1661163736575</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>53.16664810107714</v>
+        <v>28.16611638246445</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>46.14783735636307</v>
+        <v>28.16611638335404</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>52.39462549683643</v>
+        <v>28.16611639709818</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>56.21465822359217</v>
+        <v>28.16611640165041</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>20.84091303845716</v>
+        <v>28.16611635436246</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>44.43163543252449</v>
+        <v>28.1661163891353</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>52.46244320781197</v>
+        <v>28.16611639755904</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>22.35412864524318</v>
+        <v>28.16611636216151</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>34.19562702351473</v>
+        <v>28.16611639245847</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>40.07669304727465</v>
+        <v>28.166116402391</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>1.143115368580958</v>
+        <v>28.16611635659377</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>30.09050308208382</v>
+        <v>28.16611639061926</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>35.14327708845968</v>
+        <v>28.16611640137873</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>5.308228760937066</v>
+        <v>28.16611636866596</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>53.73520600286211</v>
+        <v>28.16611640585948</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>66.75188746503044</v>
+        <v>28.16611641560472</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>58.74632239429022</v>
+        <v>28.1661164137915</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>68.29594734813935</v>
+        <v>28.16611642746838</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>71.69019115604057</v>
+        <v>28.16611643103836</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>21.14163296833834</v>
+        <v>28.16611638390723</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>53.02494706385852</v>
+        <v>28.16611641801844</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>66.70695720295535</v>
+        <v>28.1661164271339</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>5.323839078284436</v>
+        <v>28.16611628452011</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>24.2903560323233</v>
+        <v>28.16611631283875</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>32.01560495316762</v>
+        <v>28.16611632093591</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-0.2211081235954531</v>
+        <v>28.16611628192979</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>26.68168402315685</v>
+        <v>28.16611631501291</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.63428066996769</v>
+        <v>28.16611632345235</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>0.6334155467507614</v>
+        <v>28.16611628842313</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>47.1083962065203</v>
+        <v>28.16611632390304</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>50.66787850982698</v>
+        <v>28.16611633142482</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>49.09344467442359</v>
+        <v>28.16611633517546</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>56.71793543642035</v>
+        <v>28.16611634657039</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>50.97548027912902</v>
+        <v>28.16611635024199</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>1.994130504578266</v>
+        <v>28.16611630843876</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>34.72473185436567</v>
+        <v>28.1661163396901</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>41.86287128563592</v>
+        <v>28.16611634784561</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>8.92046327564492</v>
+        <v>28.1661163238088</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>29.77552243284995</v>
+        <v>28.1661163561803</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.04476622372631</v>
+        <v>28.16611636548129</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-0.3098510156037868</v>
+        <v>28.16611631912794</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>22.55895372676244</v>
+        <v>28.1661163547462</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>25.76731693069616</v>
+        <v>28.16611636559532</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-0.6213269073715111</v>
+        <v>28.16611632994208</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>41.01299123720881</v>
+        <v>28.16611636933792</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>49.31750163502336</v>
+        <v>28.16611637861007</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>44.0336005834192</v>
+        <v>28.16611637983692</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>53.63086635890363</v>
+        <v>28.16611639444199</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>52.65004056283499</v>
+        <v>28.16611639933644</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>1.409110175373595</v>
+        <v>28.16611634819984</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>40.22205594535752</v>
+        <v>28.16611638606117</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>47.97573223869966</v>
+        <v>28.16611639484947</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>9.736022520314474</v>
+        <v>28.16611635660407</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>29.9923681571974</v>
+        <v>28.16611638940343</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>38.4449748527547</v>
+        <v>28.16611639985697</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-1.43131195074865</v>
+        <v>28.166116350776</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>26.1731448119837</v>
+        <v>28.16611638726431</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>28.69037068092559</v>
+        <v>28.16611639874341</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-1.943385256653809</v>
+        <v>28.16611636345221</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>45.0699423300903</v>
+        <v>28.16611640338193</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>56.16991613950857</v>
+        <v>28.16611641371214</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>56.05933225598018</v>
+        <v>28.1661164121003</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>66.67718839859539</v>
+        <v>28.16611642669751</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>70.77593479864277</v>
+        <v>28.16611643052013</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-0.02317076657170247</v>
+        <v>28.16611637941684</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>47.84790757098735</v>
+        <v>28.16611641663668</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>58.07213649808332</v>
+        <v>28.16611642620552</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/ligand/LOO_AdBrettPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.152</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.886</v>
+        <v>16.37</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.036</v>
+        <v>0.727</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.883</v>
+        <v>14.815</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.031</v>
+        <v>0.919</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.331</v>
+        <v>7.662</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.16611627933005</v>
+        <v>5.624872641986773</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.16611630732939</v>
+        <v>9.743321945643668</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.16611631591412</v>
+        <v>15.72878368205528</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.16611627649107</v>
+        <v>-3.646511760729759</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.16611630914243</v>
+        <v>10.89979769748803</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.16611631809891</v>
+        <v>13.50148487862553</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.16611628269228</v>
+        <v>1.283948319974328</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.16611631798187</v>
+        <v>23.26780691503755</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.16611632594304</v>
+        <v>26.29313241554275</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.16611633029655</v>
+        <v>17.31191136350547</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.16611634194695</v>
+        <v>21.10401398410922</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.16611634592512</v>
+        <v>25.77697605516114</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.16611630441343</v>
+        <v>4.919538553908655</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.16611633499497</v>
+        <v>11.17619293002153</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.16611634347336</v>
+        <v>21.39213725771158</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.16611632254581</v>
+        <v>13.1045213808952</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.16611635481929</v>
+        <v>25.84086827851307</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.1661163646861</v>
+        <v>33.9103562645659</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.16611631759245</v>
+        <v>0.09605084184235224</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.16611635291424</v>
+        <v>13.84733767417585</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.16611636437339</v>
+        <v>21.55469816803816</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.16611632815927</v>
+        <v>2.436918978348988</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.166116367537</v>
+        <v>29.99333047200516</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.16611637733221</v>
+        <v>42.05539648809675</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.16611637861704</v>
+        <v>30.23942943524085</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.16611639377129</v>
+        <v>43.03776621933034</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.16611639895648</v>
+        <v>51.29310599772323</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.16611634751319</v>
+        <v>6.457126254101915</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.16611638516211</v>
+        <v>31.30122264193761</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.16611639411476</v>
+        <v>41.72735175660557</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.16611635610712</v>
+        <v>16.07928538567484</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.16611638876623</v>
+        <v>29.81913880582433</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.16611639976609</v>
+        <v>37.94152496612784</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.16611634994869</v>
+        <v>0.1934420715232932</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.16611638614478</v>
+        <v>18.90432316001811</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.16611639819143</v>
+        <v>25.75670953956139</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.16611636241677</v>
+        <v>4.039660649703652</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.16611640234434</v>
+        <v>37.63364645109937</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.16611641316781</v>
+        <v>50.56936836823945</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.16611641159424</v>
+        <v>44.72441646280387</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.16611642664652</v>
+        <v>56.54099083227135</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.16611643068957</v>
+        <v>65.20944415470127</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.16611637949948</v>
+        <v>12.26599216855053</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.16611641637865</v>
+        <v>41.79883347678968</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.16611642611487</v>
+        <v>53.20430590346686</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.16611628758623</v>
+        <v>7.016587688212358</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.16611631580037</v>
+        <v>29.4924252564796</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.16611632393042</v>
+        <v>36.43038082924664</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.16611628469519</v>
+        <v>2.679514622909554</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.16611631782021</v>
+        <v>32.57392736977086</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.16611632623689</v>
+        <v>36.92843197461886</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.16611629130151</v>
+        <v>7.151037383933698</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.16611632669882</v>
+        <v>54.21249573584916</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.16611633415782</v>
+        <v>57.6187315750703</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.16611633721616</v>
+        <v>45.04995254138203</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.16611634850976</v>
+        <v>51.58668085852256</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.16611635209593</v>
+        <v>55.06944565199842</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.16611631060098</v>
+        <v>7.798939503488171</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.16611634173076</v>
+        <v>37.88305333192089</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.16611634983308</v>
+        <v>46.82388180425608</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.16611632562271</v>
+        <v>7.66155578089538</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.16611635784386</v>
+        <v>30.60449611927494</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.166116367177</v>
+        <v>37.34640161421892</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.16611632054829</v>
+        <v>-0.1945417384362358</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.16611635615972</v>
+        <v>23.19805771219209</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.16611636702287</v>
+        <v>31.63468119046598</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.16611633146223</v>
+        <v>0.8833447097478633</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.16611637070789</v>
+        <v>44.37502318969916</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.16611637993503</v>
+        <v>53.36651988895343</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.16611638068454</v>
+        <v>42.80788232136011</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.16611639510586</v>
+        <v>55.63128917909788</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.16611639980073</v>
+        <v>62.07075582275066</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.16611634922331</v>
+        <v>3.970900149436286</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.16611638682026</v>
+        <v>44.29207926875462</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.16611639564274</v>
+        <v>51.40944704140131</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.16611635899189</v>
+        <v>8.73975651480707</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.16611639172143</v>
+        <v>34.41542393507373</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.16611640209836</v>
+        <v>43.39670213868143</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.1661163528939</v>
+        <v>-2.057560536258435</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.16611638946304</v>
+        <v>27.00618641608029</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.16611640084324</v>
+        <v>35.46683525193349</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.16611636577886</v>
+        <v>0.9719427430766849</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.16611640566068</v>
+        <v>52.24479689185138</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.16611641584469</v>
+        <v>65.35947683159999</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.16611641377117</v>
+        <v>54.74120174238261</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.16611642814633</v>
+        <v>68.89636032930285</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.16611643184686</v>
+        <v>76.67134863833795</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.16611638120957</v>
+        <v>5.924433956894546</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.16611641831491</v>
+        <v>53.97664852725688</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.16611642785067</v>
+        <v>61.89627101660393</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.16611628642609</v>
+        <v>15.47095618181465</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.16611631443809</v>
+        <v>29.116689558531</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.16611632246449</v>
+        <v>33.89167525465915</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.16611628315326</v>
+        <v>4.023759991178135</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.16611631610297</v>
+        <v>28.52148982413695</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.16611632448401</v>
+        <v>30.90501865853478</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.1661162897676</v>
+        <v>10.78241232993158</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.16611632501798</v>
+        <v>50.52368546953531</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.16611633240823</v>
+        <v>50.99623909025716</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.16611633576949</v>
+        <v>40.72789739360829</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.16611634702054</v>
+        <v>48.82125630309977</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.16611635057343</v>
+        <v>50.03261563425514</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.16611630945776</v>
+        <v>17.07392089724561</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.16611634033108</v>
+        <v>32.05417794970415</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.16611634836343</v>
+        <v>40.49805573892846</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.16611632633066</v>
+        <v>19.69554679321094</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.16611635845389</v>
+        <v>37.08249273453934</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.16611636767433</v>
+        <v>41.22341821956525</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.16611632099416</v>
+        <v>3.580746785587632</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.16611635661326</v>
+        <v>26.72424563674375</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.1661163673735</v>
+        <v>32.28634984063687</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.16611633203482</v>
+        <v>7.713118136305486</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.16611637128099</v>
+        <v>48.30445294840551</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.16611638040999</v>
+        <v>54.2702060856314</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.16611638128374</v>
+        <v>46.6594625343526</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.16611639567994</v>
+        <v>59.31590948877931</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.16611640036706</v>
+        <v>62.99482483381809</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.16611635003052</v>
+        <v>17.45579348046289</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.16611638743363</v>
+        <v>45.73357042717202</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.16611639624811</v>
+        <v>52.70561378319999</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.16611635969698</v>
+        <v>18.25278015610261</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.16611639230829</v>
+        <v>37.46855626540004</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.16611640260218</v>
+        <v>44.38509792055727</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.16611635326029</v>
+        <v>0.5549928210580219</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.16611638980261</v>
+        <v>28.96906918766814</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.1661164010945</v>
+        <v>34.4869613650458</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.16611636628791</v>
+        <v>5.904226426353855</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.16611640614605</v>
+        <v>53.48550723291473</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.16611641625123</v>
+        <v>63.8336172002135</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.16611641430257</v>
+        <v>57.12079499410113</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.1661164286583</v>
+        <v>70.01784379399683</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.16611643234429</v>
+        <v>75.9260659320165</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.16611638196693</v>
+        <v>18.93219620078857</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.16611641883253</v>
+        <v>54.21743195921488</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.16611642833645</v>
+        <v>62.44389874597661</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.16611627879286</v>
+        <v>6.503175314981181</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.1661163061796</v>
+        <v>10.37409669753855</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.16611631453775</v>
+        <v>16.26243791836252</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.16611627574554</v>
+        <v>-2.984099171128356</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.16611630769405</v>
+        <v>10.63360991686845</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.16611631639012</v>
+        <v>14.09186522640397</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.16611628171129</v>
+        <v>2.882152764902415</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.16611631622564</v>
+        <v>23.06085454664203</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.16611632398465</v>
+        <v>26.54965969690707</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.16611632851306</v>
+        <v>18.90013176702688</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.16611633989393</v>
+        <v>22.05745550988339</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.16611634386239</v>
+        <v>28.61072976363222</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.16611630376171</v>
+        <v>18.26588552917224</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.16611633358256</v>
+        <v>24.27984840308013</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.16611634181991</v>
+        <v>32.65090604964796</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.16611632087154</v>
+        <v>12.43855089995296</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.16611635240667</v>
+        <v>24.27588011730474</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.16611636206327</v>
+        <v>31.94626752133343</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.16611631558807</v>
+        <v>-0.5796614803211888</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.16611635016712</v>
+        <v>12.61438015012835</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.16611636129913</v>
+        <v>20.24427522780125</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.16611632578669</v>
+        <v>1.398451513296653</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.16611636425854</v>
+        <v>25.60653704479041</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.16611637385221</v>
+        <v>37.88783010752485</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.16611637525768</v>
+        <v>25.29116356084443</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.16611639009649</v>
+        <v>37.63108302881853</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.16611639525614</v>
+        <v>48.0078677124482</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.16611634520955</v>
+        <v>9.98078266489928</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.16611638196457</v>
+        <v>33.32268449320038</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.16611639068364</v>
+        <v>41.32186674044527</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.16611635452354</v>
+        <v>17.66423513295341</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.16611638646271</v>
+        <v>29.802824167849</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.1661163971551</v>
+        <v>37.49883185458989</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.16611634801071</v>
+        <v>0.3783075947636299</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.16611638346401</v>
+        <v>17.85907535793626</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.16611639513265</v>
+        <v>24.47702832257139</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.16611636017966</v>
+        <v>5.023143675304137</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.16611639925404</v>
+        <v>35.25578859628397</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.16611640980469</v>
+        <v>48.7261424534306</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.16611640842831</v>
+        <v>39.86167027245195</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.16611642317208</v>
+        <v>50.75559932883672</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.16611642717569</v>
+        <v>62.6098962192209</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.16611637733724</v>
+        <v>16.96224321268064</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.16611641341958</v>
+        <v>44.08650925123037</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.16611642290261</v>
+        <v>52.81918331647269</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.16611628539202</v>
+        <v>11.17464860347312</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.16611631321217</v>
+        <v>22.97103502840883</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.16611632157045</v>
+        <v>28.14564164276656</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.1661162824858</v>
+        <v>2.469841405173064</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.1661163150857</v>
+        <v>26.14841792538411</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.1661163237464</v>
+        <v>29.23745711922395</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.16611628888744</v>
+        <v>10.02619197383451</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.16611632399403</v>
+        <v>46.14972451879932</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.16611633173994</v>
+        <v>47.83730911205946</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.16611633525045</v>
+        <v>32.5266134863807</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.16611634665595</v>
+        <v>38.78995060447937</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.16611635052469</v>
+        <v>41.88090654475479</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.16611630958488</v>
+        <v>15.40294812363481</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.16611633956537</v>
+        <v>25.03148542522327</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.16611634787131</v>
+        <v>32.53658373676564</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.16611632880037</v>
+        <v>22.60529421500688</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.16611636071063</v>
+        <v>39.49223372325734</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.16611637027371</v>
+        <v>42.74728616272311</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.16611632380167</v>
+        <v>8.071302913281951</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.16611635896292</v>
+        <v>29.25183381651734</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.16611637004772</v>
+        <v>33.90013771560017</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.16611633452355</v>
+        <v>13.20885116595315</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.16611637354095</v>
+        <v>50.57351437953528</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.16611638304757</v>
+        <v>56.74005709130613</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.16611638376348</v>
+        <v>48.81107022716631</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.16611639860238</v>
+        <v>61.62473853814296</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.16611640367005</v>
+        <v>66.56055721094111</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.16611635308213</v>
+        <v>25.72673606996505</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.16611638998396</v>
+        <v>51.01600035354246</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.16611639870778</v>
+        <v>56.30035457903884</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.16611636115757</v>
+        <v>20.4139048765286</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.16611639346564</v>
+        <v>37.78328348340533</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.16611640414322</v>
+        <v>42.73300483841869</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.16611635492036</v>
+        <v>2.078508056032081</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.16611639090323</v>
+        <v>26.47851804303451</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.1661164026126</v>
+        <v>31.31778873663656</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.16611636750902</v>
+        <v>8.019523018100463</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.16611640708355</v>
+        <v>50.75506287095466</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.1661164176276</v>
+        <v>60.67404393877111</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.16611641551853</v>
+        <v>54.74684042299953</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.16611643031596</v>
+        <v>66.53809201969784</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.16611643426656</v>
+        <v>73.1874443693428</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.16611638380812</v>
+        <v>22.93262572291181</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.16611642007229</v>
+        <v>53.22543724270857</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.16611642963959</v>
+        <v>60.87685286922537</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.16611629695031</v>
+        <v>8.060378522610616</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.16611632212303</v>
+        <v>24.22781455506794</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.16611632918821</v>
+        <v>29.89890594735036</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.16611629420866</v>
+        <v>3.540203956582058</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.16611632394985</v>
+        <v>31.08535520750365</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.16611633116532</v>
+        <v>34.50196164365178</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.16611630019935</v>
+        <v>8.792056532702397</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.166116331911</v>
+        <v>53.43620793180266</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.16611633840924</v>
+        <v>54.33730621709505</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.16611634069079</v>
+        <v>33.55465737335208</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.16611635061263</v>
+        <v>41.02506402269545</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.16611635379122</v>
+        <v>43.62645463633437</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.16611631688756</v>
+        <v>6.090029337351982</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.16611634400676</v>
+        <v>21.58858503759965</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.16611635106029</v>
+        <v>27.02078138641074</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.16611633577649</v>
+        <v>18.94759195798217</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.16611636472541</v>
+        <v>42.23428225313468</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.16611637277906</v>
+        <v>44.66331747421398</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.1661163312115</v>
+        <v>4.369806017659226</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.16611636344253</v>
+        <v>33.20891383811575</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.16611637275947</v>
+        <v>37.64714989861695</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.16611634128122</v>
+        <v>8.655246537466098</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.16611637664619</v>
+        <v>57.91150818727857</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.16611638464063</v>
+        <v>61.13372037251465</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.16611638478643</v>
+        <v>51.10658758092207</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.16611639756822</v>
+        <v>63.46436282100404</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.16611640173011</v>
+        <v>69.04926604742083</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.1661163564285</v>
+        <v>17.94699285151677</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.16611638989371</v>
+        <v>55.84781932204935</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.16611639746835</v>
+        <v>59.52499370598542</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.16611636399831</v>
+        <v>19.27655593356644</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.16611639324463</v>
+        <v>41.41888042255746</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.16611640227702</v>
+        <v>46.7587736067489</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.16611635839317</v>
+        <v>0.861514671472758</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.16611639128796</v>
+        <v>29.82256028315104</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.16611640116969</v>
+        <v>34.98987876597857</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.16611637013562</v>
+        <v>6.020172043844592</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.16611640592946</v>
+        <v>57.59529417641322</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.16611641482749</v>
+        <v>66.64205688620127</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.16611641254749</v>
+        <v>58.09840404717403</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.16611642530168</v>
+        <v>70.67155951070387</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.16611642857988</v>
+        <v>75.86245796072576</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.16611638329216</v>
+        <v>15.95361302448107</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.16611641618757</v>
+        <v>57.67096714046133</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.16611642451265</v>
+        <v>63.49552979746868</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.16611628350837</v>
+        <v>3.431575414877496</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.16611630816173</v>
+        <v>5.292091470542466</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.166116315571</v>
+        <v>9.502730650275867</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.1661162809683</v>
+        <v>-1.881756467107781</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.1661163098529</v>
+        <v>8.843046015272531</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.16611631762157</v>
+        <v>10.4461403529715</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.1661162863247</v>
+        <v>0.5263699402842974</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.16611631740102</v>
+        <v>18.64687823569525</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.16611632429098</v>
+        <v>20.07039921667582</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.1661163288223</v>
+        <v>17.26974734506855</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.16611633917849</v>
+        <v>22.95916547382482</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.16611634258035</v>
+        <v>23.98499891330108</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.16611630564715</v>
+        <v>3.870765897473621</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.16611633285007</v>
+        <v>8.968903159746505</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.16611634019055</v>
+        <v>15.21837730566879</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.16611632210089</v>
+        <v>10.23889689327397</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.16611635070992</v>
+        <v>23.21798229432612</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.16611635925194</v>
+        <v>30.38671550859588</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.16611631777668</v>
+        <v>1.172940048470686</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.16611634933982</v>
+        <v>15.79028561332979</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.16611635925005</v>
+        <v>24.04497191597091</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.16611632726827</v>
+        <v>2.159681576481226</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.16611636222771</v>
+        <v>30.98647816658569</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.16611637070091</v>
+        <v>40.72373899441676</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.16611637248593</v>
+        <v>29.93092222037087</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.16611638568347</v>
+        <v>41.94769266429631</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.16611639011948</v>
+        <v>46.35214928194121</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.16611634460703</v>
+        <v>5.375044927107623</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.16611637816564</v>
+        <v>31.17773915559378</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.1661163861045</v>
+        <v>38.85773347791522</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.16611635258269</v>
+        <v>11.68430777651245</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.16611638152194</v>
+        <v>25.64302730447088</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.16611639110224</v>
+        <v>34.26661058778618</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.16611634719413</v>
+        <v>0.02458658580566109</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.16611637952198</v>
+        <v>19.84981775001851</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.16611638997446</v>
+        <v>27.09043769721087</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.16611635842684</v>
+        <v>3.938808166908654</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.16611639383915</v>
+        <v>38.74463813801638</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.16611640323799</v>
+        <v>50.05913450520067</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.16611640249898</v>
+        <v>46.23737823304047</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.16611641561623</v>
+        <v>58.50499925678113</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.16611641909671</v>
+        <v>62.15695059210931</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.16611637380252</v>
+        <v>14.88518773529513</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.16611640659297</v>
+        <v>44.58547922761917</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.16611641521954</v>
+        <v>53.55077153523126</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.16611627647067</v>
+        <v>2.42620022292229</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.16611630385398</v>
+        <v>3.537584531353051</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.16611631218745</v>
+        <v>11.16253911311124</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.16611627335269</v>
+        <v>-2.505679355241735</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.166116305411</v>
+        <v>7.348873376292879</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.16611631402674</v>
+        <v>12.11460878669695</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.16611627912714</v>
+        <v>-1.565984325572273</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.16611631364166</v>
+        <v>16.30394530870401</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.16611632140524</v>
+        <v>21.09963031474794</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.16611632579992</v>
+        <v>9.66136968450118</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.1661163372229</v>
+        <v>14.36672019370478</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.16611634114292</v>
+        <v>20.43073505602388</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.1661163005891</v>
+        <v>1.574938680113085</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.1661163304343</v>
+        <v>4.099473938931158</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.16611633864563</v>
+        <v>9.581173627130768</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.16611631802769</v>
+        <v>0.952664520591906</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.16611634947233</v>
+        <v>5.698789090066455</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.16611635908848</v>
+        <v>15.14238962735884</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.16611631288296</v>
+        <v>-5.195317668013022</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.16611634748829</v>
+        <v>0.6668017849658163</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.16611635855186</v>
+        <v>9.960525709964449</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.16611632293585</v>
+        <v>-6.94448592906615</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.16611636134285</v>
+        <v>10.41998518953575</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.16611637096131</v>
+        <v>23.93357247388032</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.1661163724701</v>
+        <v>9.828090363728386</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.16611638734057</v>
+        <v>24.00324953916485</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.16611639258783</v>
+        <v>35.61654471312893</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.16611634224744</v>
+        <v>-5.555137728846784</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.16611637891351</v>
+        <v>10.48259397945928</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.16611638761491</v>
+        <v>15.23168436867184</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.16611635125173</v>
+        <v>3.16366568491113</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.16611638311834</v>
+        <v>9.074754266739497</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.16611639386158</v>
+        <v>21.98062182889369</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.16611634501939</v>
+        <v>-4.938054289117243</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.16611638048479</v>
+        <v>4.157924426834011</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.16611639220016</v>
+        <v>15.6643704336561</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.16611635700631</v>
+        <v>-5.774660740737193</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.16611639600192</v>
+        <v>17.92060054131187</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.16611640665889</v>
+        <v>36.27677137349635</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.16611640533305</v>
+        <v>23.70001955279169</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.16611642024613</v>
+        <v>37.2243533875134</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.16611642429484</v>
+        <v>51.57748003944934</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.16611637403153</v>
+        <v>-1.988364705792439</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.16611641009787</v>
+        <v>19.36941840808374</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.16611641966506</v>
+        <v>26.69609765529849</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.16611630036353</v>
+        <v>10.31046191282898</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.16611632693972</v>
+        <v>24.05184209920724</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.16611633468575</v>
+        <v>34.19889933903717</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.16611629857882</v>
+        <v>5.21714077097247</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.16611633012678</v>
+        <v>37.94630991373086</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.16611633802058</v>
+        <v>41.23212884845859</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.16611630525095</v>
+        <v>13.65502368440633</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.16611633880845</v>
+        <v>57.47896439881059</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.16611634587528</v>
+        <v>61.51540349411262</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.16611634826636</v>
+        <v>46.97905662153408</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.16611635888302</v>
+        <v>53.38307143518712</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.16611636225906</v>
+        <v>54.22687213517182</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.16611632324709</v>
+        <v>23.62162476341952</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.16611635226026</v>
+        <v>39.31824517900052</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.1661163599642</v>
+        <v>54.87988824905052</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.16611633597255</v>
+        <v>11.09234764652882</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.1661163664039</v>
+        <v>27.62322565128943</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.16611637509906</v>
+        <v>33.82531873251715</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.16611633208402</v>
+        <v>-2.358136289003063</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.16611636603204</v>
+        <v>23.12137130848281</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.16611637603558</v>
+        <v>27.84894281910447</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.16611634276351</v>
+        <v>1.301444867682495</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.16611638000117</v>
+        <v>43.00710496284606</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.16611638855371</v>
+        <v>50.07768984016832</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.16611638894379</v>
+        <v>39.77747652346972</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.16611640252968</v>
+        <v>50.73660031166234</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.16611640693151</v>
+        <v>52.77044362613273</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.16611635927391</v>
+        <v>12.60262665911886</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.1661163946037</v>
+        <v>42.20436541916865</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.16611640277468</v>
+        <v>49.37939172589937</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.16611636616868</v>
+        <v>12.98819847960484</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.16611639694171</v>
+        <v>30.13680239445652</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.16611640676623</v>
+        <v>40.03580203853637</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.16611636121262</v>
+        <v>-0.9535741809265623</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.16611639591221</v>
+        <v>28.68131114037662</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.16611640653594</v>
+        <v>34.05229145803587</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.16611637364595</v>
+        <v>4.260113521468199</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.16611641133754</v>
+        <v>51.21167626742918</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.16611642091904</v>
+        <v>63.74038716131163</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.16611641860055</v>
+        <v>53.67678233967387</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.16611643214753</v>
+        <v>64.2674947129557</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.16611643563144</v>
+        <v>68.3747712364526</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.16611638808591</v>
+        <v>16.52027164499824</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.16611642274768</v>
+        <v>52.73635688640871</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.16611643172316</v>
+        <v>63.45076183586472</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.16611627693625</v>
+        <v>5.12132495870361</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.16611630157067</v>
+        <v>5.982681113471418</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.16611630895688</v>
+        <v>12.33103606306958</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.16611627375333</v>
+        <v>-3.346767475958774</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.16611630244635</v>
+        <v>1.772000966298148</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.16611631018935</v>
+        <v>6.497666322933359</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.16611627866065</v>
+        <v>-0.09147252994922539</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.16611630954096</v>
+        <v>13.6435971315775</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.16611631641303</v>
+        <v>17.08696166128051</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.16611632115713</v>
+        <v>10.44099493582145</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.16611633154983</v>
+        <v>13.83595353562706</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.16611633484913</v>
+        <v>19.08309980732783</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.16611629815612</v>
+        <v>-2.338025722527814</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.16611632554194</v>
+        <v>3.753276531516409</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.16611633281777</v>
+        <v>8.443948289409422</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.16611631411553</v>
+        <v>4.222832983656289</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.16611634252995</v>
+        <v>12.2866955877041</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.16611635124043</v>
+        <v>22.71311968305506</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.1661163092567</v>
+        <v>-2.627476959979745</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.16611634046139</v>
+        <v>4.062565891446397</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.16611635054594</v>
+        <v>16.15857664501825</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.16611631825485</v>
+        <v>-2.473518319801482</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.16611635284933</v>
+        <v>16.56681516483769</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.16611636151766</v>
+        <v>29.12107569585688</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.16611636342789</v>
+        <v>13.99595723257507</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.16611637677306</v>
+        <v>24.75373128252652</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.16611638119758</v>
+        <v>34.94393294762254</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.16611633596444</v>
+        <v>-4.081942512595706</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.16611636943197</v>
+        <v>15.64716924959109</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.16611637752799</v>
+        <v>23.35575320402827</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.16611634533577</v>
+        <v>9.670052590765426</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.16611637421164</v>
+        <v>18.28833789375213</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.1661163838894</v>
+        <v>29.67614904607343</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.16611633952385</v>
+        <v>-0.8933003166816</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.16611637157094</v>
+        <v>9.127057379095165</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.1661163822032</v>
+        <v>20.91223760430817</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.16611635033169</v>
+        <v>2.610345400854253</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.16611638550337</v>
+        <v>27.12334991146427</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.16611639502526</v>
+        <v>41.31367178098171</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.1661163944573</v>
+        <v>30.60972317281747</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.16611640769154</v>
+        <v>40.55483761520918</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.16611641114954</v>
+        <v>53.4535469428226</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.16611636599684</v>
+        <v>6.257833927790106</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.16611639889648</v>
+        <v>29.37804443306688</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.16611640756028</v>
+        <v>38.76978697333337</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.16611628152887</v>
+        <v>-4.615271043532811</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.16611630796202</v>
+        <v>1.033285747411021</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.16611631548771</v>
+        <v>5.459923295976683</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.16611627781968</v>
+        <v>-12.1459584311345</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.16611630879886</v>
+        <v>-0.4623879053059525</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.16611631667188</v>
+        <v>2.427539737230269</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.16611628356791</v>
+        <v>-11.39659007402394</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.16611631676831</v>
+        <v>15.27024390678011</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.16611632374147</v>
+        <v>16.13640229299266</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.16611632744016</v>
+        <v>6.856278586054639</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.16611633805141</v>
+        <v>11.4998838657826</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.16611634146486</v>
+        <v>14.98063906059383</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.16611630276717</v>
+        <v>-9.082860984375923</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.16611633177702</v>
+        <v>-2.257293046729369</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.16611633931</v>
+        <v>1.300250900129267</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.16611632310634</v>
+        <v>15.82771868212672</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.16611635355141</v>
+        <v>29.64953350801764</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.16611636230029</v>
+        <v>33.8018544060539</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.16611631769329</v>
+        <v>3.972222511044368</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.16611635136671</v>
+        <v>20.83951545214928</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.1661163616064</v>
+        <v>27.13572598492208</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.16611632790869</v>
+        <v>6.047233973574226</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.16611636505917</v>
+        <v>40.23489913653351</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.1661163737874</v>
+        <v>46.23250304236463</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.16611637487619</v>
+        <v>38.30181473838527</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.16611638853785</v>
+        <v>48.42198290973933</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.16611639302143</v>
+        <v>53.92510669542379</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.16611634531987</v>
+        <v>12.80621948825094</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.16611638072859</v>
+        <v>37.93835761401623</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.16611638907247</v>
+        <v>43.28062706329187</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.16611635529824</v>
+        <v>17.78900314678517</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.16611638628017</v>
+        <v>33.92125809808662</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.16611639598576</v>
+        <v>40.88397863453119</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.16611634875238</v>
+        <v>2.248229185276237</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.16611638336752</v>
+        <v>24.79159847572225</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.16611639405864</v>
+        <v>31.07968105514295</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.16611636090118</v>
+        <v>6.139974751278459</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.16611639870949</v>
+        <v>47.50731261547284</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.16611640830641</v>
+        <v>57.76440209201706</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.1661164067016</v>
+        <v>50.81306435117618</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.16611642034286</v>
+        <v>62.10541205650537</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.16611642386065</v>
+        <v>68.5837904298447</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.16611637598127</v>
+        <v>15.54470797148074</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.16611641100793</v>
+        <v>48.68947316962874</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.16611641996417</v>
+        <v>54.29697593712532</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.166116275192</v>
+        <v>9.625031351356096</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.1661163011199</v>
+        <v>10.74412479222037</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.16611630883641</v>
+        <v>16.04912993048585</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.16611627156193</v>
+        <v>0.6398372250671187</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.16611630189938</v>
+        <v>9.186158036131168</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.16611631001433</v>
+        <v>12.79931094097433</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.16611627697194</v>
+        <v>5.885873165132537</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.16611630963778</v>
+        <v>21.7667072937566</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.16611631676521</v>
+        <v>24.37912396169325</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.16611632123779</v>
+        <v>16.19226668660473</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.16611633192456</v>
+        <v>21.21269578199025</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.1661163352978</v>
+        <v>25.36652542092735</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.16611629712267</v>
+        <v>8.621031923654467</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.1661163258232</v>
+        <v>10.94029150901468</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.1661163334802</v>
+        <v>16.98945006466453</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.16611631226394</v>
+        <v>4.189765000256418</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.1661163419751</v>
+        <v>8.308097406671545</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.16611635108281</v>
+        <v>16.2733516095608</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.16611630651812</v>
+        <v>-3.934185496716122</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.166116339314</v>
+        <v>1.240375173242395</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.16611634984288</v>
+        <v>10.95776202520198</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.16611631605549</v>
+        <v>-4.161795389904473</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.16611635236674</v>
+        <v>11.58460419798104</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.16611636142488</v>
+        <v>23.21267244872955</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.1661163632437</v>
+        <v>9.598299480883828</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.16611637690043</v>
+        <v>17.5854335377456</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.16611638150416</v>
+        <v>27.41544988409829</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.16611633458071</v>
+        <v>-3.401190187454564</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.1661163693957</v>
+        <v>9.198615147871211</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.16611637797016</v>
+        <v>17.52284175010961</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.16611634718982</v>
+        <v>14.66062502855371</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.16611637751622</v>
+        <v>21.77894945903134</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.1661163874755</v>
+        <v>30.57282938398309</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.16611634037938</v>
+        <v>-1.51515316255314</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.16611637422015</v>
+        <v>10.55276614102472</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.16611638509401</v>
+        <v>19.17709599703384</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.16611635211122</v>
+        <v>3.817056459111772</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.16611638922572</v>
+        <v>28.87928785040647</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.16611639900712</v>
+        <v>42.10781825053522</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.16611639823576</v>
+        <v>29.97074136370178</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.16611641177321</v>
+        <v>38.52649685819652</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.16611641533544</v>
+        <v>48.82473729948528</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.16611636829431</v>
+        <v>8.878340760184763</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.16611640274971</v>
+        <v>28.17921232894649</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.16611641181751</v>
+        <v>35.36180758911819</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.16611627145699</v>
+        <v>3.395292594481635</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.1661162959473</v>
+        <v>1.768032193604274</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.16611630315288</v>
+        <v>4.015754868423603</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.1661162672776</v>
+        <v>-1.458514008002421</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.16611629588104</v>
+        <v>0.1557636345902047</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.16611630345689</v>
+        <v>1.729466544417775</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.1661162718841</v>
+        <v>-0.5113366296249069</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.16611630267306</v>
+        <v>7.833892542985879</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.16611630936018</v>
+        <v>8.294263570959968</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.16611631429142</v>
+        <v>2.133418591629258</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.16611632432397</v>
+        <v>1.487915030494982</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.16611632755599</v>
+        <v>7.473490424955592</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.16611629182986</v>
+        <v>-0.4582259251533536</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.16611631884631</v>
+        <v>-2.559085318231343</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.16611632602237</v>
+        <v>-0.04241373192025222</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.16611630736917</v>
+        <v>1.70680432185944</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.16611633550038</v>
+        <v>2.553334649677293</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.16611634397349</v>
+        <v>5.532004012272768</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.16611630126205</v>
+        <v>-3.475532925928594</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.16611633226072</v>
+        <v>-3.192356728670713</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.16611634210305</v>
+        <v>1.569940266579263</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.16611630983882</v>
+        <v>-6.324534750030445</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.16611634416621</v>
+        <v>2.295568597877228</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.16611635261912</v>
+        <v>8.03380066556867</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.16611635505517</v>
+        <v>-0.8650488267829495</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.16611636792855</v>
+        <v>2.615843725998033</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.16611637225384</v>
+        <v>11.03484508445218</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.16611632813626</v>
+        <v>-7.922147340114172</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.16611636100749</v>
+        <v>-1.512277622972931</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.16611636900574</v>
+        <v>1.549061836354294</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.16611634135333</v>
+        <v>14.56514072947453</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.16611637006334</v>
+        <v>18.19839483785825</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.16611637940024</v>
+        <v>22.6552794471834</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.16611633419953</v>
+        <v>-0.1244216697128842</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.16611636615779</v>
+        <v>6.62669783952035</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.16611637642656</v>
+        <v>11.53898539531649</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.16611634494643</v>
+        <v>3.031082644574063</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.16611638002398</v>
+        <v>20.53366410725761</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.16611638925812</v>
+        <v>28.55861801420943</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.16611638917761</v>
+        <v>21.28746077658639</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.16611640198182</v>
+        <v>25.52230095835453</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.16611640535639</v>
+        <v>34.89991351889808</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.16611636096949</v>
+        <v>6.362641687188457</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.16611639349738</v>
+        <v>18.78827930134311</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.16611640206917</v>
+        <v>21.9966988698422</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.16611628064958</v>
+        <v>19.42459818005634</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.16611630849632</v>
+        <v>24.98764233502785</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.1661163169774</v>
+        <v>32.56377024560645</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.16611627744625</v>
+        <v>4.638134687993411</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.16611630993627</v>
+        <v>21.09549817934892</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.16611631869284</v>
+        <v>23.74034418596267</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.16611628384552</v>
+        <v>13.79569264801449</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.16611631896841</v>
+        <v>38.43302947075467</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.16611632680056</v>
+        <v>42.62932731611426</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.16611633105124</v>
+        <v>34.81594640284245</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.1661163426648</v>
+        <v>40.11642147015834</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.16611634651255</v>
+        <v>43.1674731533909</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.16611630551408</v>
+        <v>26.35870612856285</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.1661163359589</v>
+        <v>34.48865819220605</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.16611634427147</v>
+        <v>42.29010984931854</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.16611632096285</v>
+        <v>11.62610529715064</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.16611635286617</v>
+        <v>20.07189705859013</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.16611636259688</v>
+        <v>26.43914294125065</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.16611631552166</v>
+        <v>-4.96954521686536</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.16611635050785</v>
+        <v>4.813548459859522</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.16611636171032</v>
+        <v>9.415835981843662</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.166116326095</v>
+        <v>-1.505362660157285</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.16611636508499</v>
+        <v>20.90606075990777</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.16611637472112</v>
+        <v>30.43829966676487</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.16611637616521</v>
+        <v>21.58161151577847</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.16611639117822</v>
+        <v>31.56722649751397</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.1661163962413</v>
+        <v>34.76001226438269</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.1661163457085</v>
+        <v>8.18273710058342</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.16611638290929</v>
+        <v>25.82939093959095</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.1661163917268</v>
+        <v>30.26391360238279</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.16611635517361</v>
+        <v>20.04282869444277</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.16611638746582</v>
+        <v>29.96400914071461</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.16611639833508</v>
+        <v>38.00428071145657</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.16611634852589</v>
+        <v>0.3976251841564427</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.16611638440463</v>
+        <v>15.9636889214042</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.16611639618502</v>
+        <v>20.96953998634929</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.16611636108643</v>
+        <v>6.170855642624378</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.16611640064973</v>
+        <v>35.74511668786491</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.16611641131524</v>
+        <v>47.69851923113156</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.16611640988081</v>
+        <v>42.97170583163543</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.16611642477579</v>
+        <v>52.55040036852316</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.16611642872348</v>
+        <v>57.80731284141619</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.16611637836074</v>
+        <v>19.22136627088664</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.16611641481538</v>
+        <v>41.71619297068705</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.16611642441013</v>
+        <v>48.73728743308865</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.16611628592236</v>
+        <v>14.65065486323729</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.16611631247586</v>
+        <v>30.36603599746344</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.16611632020719</v>
+        <v>37.0597480791453</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.16611628288676</v>
+        <v>6.343552425842152</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.16611631398601</v>
+        <v>29.48622816151907</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.16611632204472</v>
+        <v>33.86441481900416</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.16611628894085</v>
+        <v>12.93385710075326</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.16611632228258</v>
+        <v>49.12848439810848</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.16611632940818</v>
+        <v>53.90704951706401</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.16611633295904</v>
+        <v>47.14009526111224</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.16611634378417</v>
+        <v>51.48706119312227</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.16611634717433</v>
+        <v>54.92805455980998</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.16611630794565</v>
+        <v>14.63062952387032</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.1661163373934</v>
+        <v>36.99816299597183</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.16611634511604</v>
+        <v>46.96308614281577</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.16611632186051</v>
+        <v>10.34933085921053</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.16611635219004</v>
+        <v>26.29071191071627</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.16611636115901</v>
+        <v>32.84300040339419</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.16611631681793</v>
+        <v>0.5753478243379568</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.16611635026872</v>
+        <v>17.90444015615451</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.16611636070274</v>
+        <v>25.56282718148552</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.16611632696712</v>
+        <v>1.48890704556613</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.16611636395682</v>
+        <v>34.44030714306585</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.16611637284205</v>
+        <v>43.83888557996393</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.1661163740669</v>
+        <v>35.35014505737975</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.16611638784969</v>
+        <v>45.71172600652056</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.16611639234413</v>
+        <v>51.12925066436866</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.16611634445468</v>
+        <v>4.022473215421247</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.16611637996825</v>
+        <v>32.94834877824552</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.1661163884821</v>
+        <v>42.39840065762709</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.16611635434367</v>
+        <v>9.402854140197572</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.16611638521275</v>
+        <v>28.17248115740958</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.1661163951474</v>
+        <v>37.25254335517368</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.1661163483271</v>
+        <v>-2.032086171055941</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.1661163827298</v>
+        <v>21.19632861754476</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.16611639366846</v>
+        <v>29.49401545572817</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.16611636039098</v>
+        <v>0.133427488254231</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.16611639803674</v>
+        <v>40.72845563792893</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.16611640780963</v>
+        <v>54.74643452868716</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.16611640633508</v>
+        <v>46.94454204816512</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.16611642006053</v>
+        <v>58.08077871313132</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.16611642359287</v>
+        <v>66.74913399729202</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.16611637561845</v>
+        <v>5.359055312122543</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.16611641072402</v>
+        <v>41.94069768825866</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.16611641985235</v>
+        <v>52.64985473706572</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.16611628634396</v>
+        <v>12.46470785771962</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.16611631544636</v>
+        <v>24.42781788477819</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.16611632421816</v>
+        <v>32.39062096453822</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.16611628391039</v>
+        <v>5.289877335097</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.16611631805716</v>
+        <v>32.16812963898111</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.16611632711039</v>
+        <v>35.09525302013746</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.16611629075224</v>
+        <v>12.27952961934464</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.16611632744943</v>
+        <v>48.79572412298293</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.16611633553399</v>
+        <v>52.58160276245685</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.16611633898417</v>
+        <v>38.18264341257508</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.16611635085195</v>
+        <v>41.78186426529118</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.1661163548631</v>
+        <v>45.13166776200123</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.16611631191719</v>
+        <v>16.84691114427036</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.16611634362707</v>
+        <v>31.22091503586319</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.16611635233085</v>
+        <v>44.36941599388913</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.16611632856702</v>
+        <v>11.98602642792509</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.16611636195168</v>
+        <v>28.56216395338242</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.16611637190433</v>
+        <v>34.78769643051602</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.16611632385457</v>
+        <v>-1.374951058541338</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.16611636058925</v>
+        <v>19.5119874389004</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.16611637212121</v>
+        <v>24.63805009773978</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.16611633507655</v>
+        <v>1.273380742530748</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.16611637583465</v>
+        <v>37.84487124741928</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.16611638569077</v>
+        <v>47.13582143149495</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.16611638641217</v>
+        <v>36.42430475536752</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.16611640179309</v>
+        <v>47.73894233663337</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.16611640702423</v>
+        <v>53.14753790412857</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.16611635410255</v>
+        <v>7.550314697740657</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.16611639293979</v>
+        <v>37.11392536697185</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.16611640205059</v>
+        <v>45.83976957250435</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.16611636227368</v>
+        <v>13.07048224046063</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.16611639605245</v>
+        <v>30.62425157210205</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.16611640719417</v>
+        <v>38.18701819542398</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.16611635634387</v>
+        <v>-1.755224967638942</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.16611639395904</v>
+        <v>23.78947157371911</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.16611640612351</v>
+        <v>28.77678543424313</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.16611636947616</v>
+        <v>1.438524264147336</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.16611641078199</v>
+        <v>43.89323296893598</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.16611642172999</v>
+        <v>55.94442703759584</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.16611641947545</v>
+        <v>49.05566797503126</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.16611643480351</v>
+        <v>60.12500676072879</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.16611643889057</v>
+        <v>67.14406849423976</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.16611638616079</v>
+        <v>9.707162211032655</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.16611642426622</v>
+        <v>45.65300345861763</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.16611643423948</v>
+        <v>56.39776305727993</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.16611628602328</v>
+        <v>20.29203169081414</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.16611631344707</v>
+        <v>26.82497410207458</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.16611632192368</v>
+        <v>34.2799594951256</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.16611628398148</v>
+        <v>18.47753814114364</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.16611631607629</v>
+        <v>41.3917289772503</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.1661163248251</v>
+        <v>43.86915913137383</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.16611628994651</v>
+        <v>19.93525504906737</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.16611632460056</v>
+        <v>48.65900249825143</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.16611633242966</v>
+        <v>52.82285449394524</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.16611633612226</v>
+        <v>39.25737258228597</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.16611634750934</v>
+        <v>43.66645111206024</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.16611635139463</v>
+        <v>47.29852274993435</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.16611631079251</v>
+        <v>26.31861676093676</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.16611634063818</v>
+        <v>31.8783106213818</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.16611634904933</v>
+        <v>44.25144800577613</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.16611632777825</v>
+        <v>20.93062473762622</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.16611635922682</v>
+        <v>31.54216109222044</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.16611636892927</v>
+        <v>37.68365893044655</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.16611632385412</v>
+        <v>20.30581107755763</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.16611635834214</v>
+        <v>35.75619063225074</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.16611636949022</v>
+        <v>40.43027176475915</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.16611633378924</v>
+        <v>11.20886912792622</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.16611637227775</v>
+        <v>39.54738581844376</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.16611638185939</v>
+        <v>49.38153017190747</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.16611638265437</v>
+        <v>37.63219346133945</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.16611639744485</v>
+        <v>48.66351848912063</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.16611640254385</v>
+        <v>54.30256079186029</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.16611635229977</v>
+        <v>18.30350165779241</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.16611638897251</v>
+        <v>37.28215924065157</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.1661163977353</v>
+        <v>46.71603701946202</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.16611636012356</v>
+        <v>20.86937261398661</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.16611639196261</v>
+        <v>32.30204317350523</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.16611640274859</v>
+        <v>39.1576114007184</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.16611635498952</v>
+        <v>18.8652951632697</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.16611639030017</v>
+        <v>38.91745046151659</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.16611640202487</v>
+        <v>42.60234887977296</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.16611636680476</v>
+        <v>11.75955058989936</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.16611640584281</v>
+        <v>46.33395116915392</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.16611641642169</v>
+        <v>58.06856179692682</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.16611641444907</v>
+        <v>51.83764701115238</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.16611642915449</v>
+        <v>61.27551294104161</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.16611643311812</v>
+        <v>68.18423123365791</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.16611638309723</v>
+        <v>19.79035955073624</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.16611641907544</v>
+        <v>44.57070668961664</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.16611642863974</v>
+        <v>57.37382644322577</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.16611628326835</v>
+        <v>9.030870082967731</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.1661163118318</v>
+        <v>24.44082645727532</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.16611632004116</v>
+        <v>31.75057372347326</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.16611628041599</v>
+        <v>1.701955022959172</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.16611631377911</v>
+        <v>25.09459314211088</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.16611632230014</v>
+        <v>27.85281184231612</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.16611628697708</v>
+        <v>7.850835012376731</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.16611632274704</v>
+        <v>45.44677667211499</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.16611633037922</v>
+        <v>49.5321698632516</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.16611633408195</v>
+        <v>42.39608186183078</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.16611634558226</v>
+        <v>47.3345920276161</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.16611634927323</v>
+        <v>48.53742582964796</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.16611630713071</v>
+        <v>7.739451076430555</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.16611633868873</v>
+        <v>31.59685881294877</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.16611634688698</v>
+        <v>40.01832526576882</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.16611632254225</v>
+        <v>8.153200688853406</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.16611635515851</v>
+        <v>24.90610191310085</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.16611636459387</v>
+        <v>30.2590573061336</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.16611631768577</v>
+        <v>-1.193663364832336</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.16611635361093</v>
+        <v>17.76946030384955</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.16611636456163</v>
+        <v>22.2572871963492</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.16611632858234</v>
+        <v>-0.6166572961655454</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.16611636828467</v>
+        <v>33.9627120607128</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.16611637768922</v>
+        <v>41.65779512626786</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.16611637889962</v>
+        <v>35.08327103897259</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.1661163936183</v>
+        <v>44.20494335002331</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.16611639854165</v>
+        <v>47.57916422924922</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.16611634701837</v>
+        <v>0.8719933845247922</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.16611638515797</v>
+        <v>32.51002473809132</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.16611639407931</v>
+        <v>39.71665107467159</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.16611635596889</v>
+        <v>8.615762882998471</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.16611638904374</v>
+        <v>26.945845015751</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.16611639962563</v>
+        <v>34.82393000090116</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.16611634994257</v>
+        <v>-1.469596463870513</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.16611638675509</v>
+        <v>21.41760584766184</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.16611639834357</v>
+        <v>26.12715469426761</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.16611636276608</v>
+        <v>-0.8655678121175079</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.1661164030311</v>
+        <v>40.49188633834304</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.16611641349837</v>
+        <v>51.76843491241077</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.16611641182471</v>
+        <v>48.69736189382299</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.16611642653324</v>
+        <v>58.86122527326454</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.16611643038141</v>
+        <v>64.54952877246838</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.16611637886514</v>
+        <v>3.501391643052717</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.16611641640187</v>
+        <v>41.8152823285233</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.16611642607644</v>
+        <v>51.16408387622926</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.16611627970844</v>
+        <v>7.676259484403563</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.16611630508481</v>
+        <v>10.26157238181857</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.16611631268633</v>
+        <v>15.76040973383918</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.16611627682238</v>
+        <v>-2.536807255220626</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.16611630636242</v>
+        <v>10.58633647282038</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.16611631430137</v>
+        <v>12.1001477364823</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.16611628220426</v>
+        <v>2.57727196151048</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.16611631413214</v>
+        <v>20.62288290002528</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.16611632121193</v>
+        <v>24.09481546622966</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.16611632574654</v>
+        <v>16.61294816872243</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.16611633630717</v>
+        <v>20.02015440251728</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.16611633976222</v>
+        <v>23.23812040850439</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.1661163022464</v>
+        <v>4.269474431515356</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.16611633013125</v>
+        <v>9.903174998427437</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.1661163377167</v>
+        <v>15.38702475384146</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.16611631943803</v>
+        <v>7.867769008608711</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.16611634879872</v>
+        <v>18.70121305715334</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.16611635758681</v>
+        <v>26.64838961156325</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.16611631466377</v>
+        <v>-1.957792019649357</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.16611634680404</v>
+        <v>11.33301399249205</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.16611635701175</v>
+        <v>18.10308853402977</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.16611632412404</v>
+        <v>-0.5117001826015262</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.16611635988427</v>
+        <v>23.01500345490905</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.16611636865412</v>
+        <v>35.55592329108509</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.16611637033244</v>
+        <v>23.00684803097704</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.16611638408136</v>
+        <v>34.65958675469776</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.16611638862136</v>
+        <v>39.83424929091916</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.16611634206912</v>
+        <v>-0.6488378342215064</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.16611637644078</v>
+        <v>22.63233065487534</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.16611638450065</v>
+        <v>30.92200768719751</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.16611635069549</v>
+        <v>13.15941461933127</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.16611638048239</v>
+        <v>24.62929607185423</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.16611639029825</v>
+        <v>32.71519405330804</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.16611634491194</v>
+        <v>-0.38170205255431</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.16611637792847</v>
+        <v>17.8714426499163</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.16611638867403</v>
+        <v>22.92054398891345</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.16611635613732</v>
+        <v>3.533104840772754</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.1661163924651</v>
+        <v>32.61359837188661</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.16611640215739</v>
+        <v>45.5633171830971</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.16611640114217</v>
+        <v>37.92894730901251</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.16611641477248</v>
+        <v>48.0196632478555</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.16611641832477</v>
+        <v>53.33154151990004</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.16611637191495</v>
+        <v>6.475249807066181</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.16611640562286</v>
+        <v>33.90330607601824</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.16611641437256</v>
+        <v>42.94720617266771</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.16611628399047</v>
+        <v>8.532593884185038</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.16611631123737</v>
+        <v>12.78750513431517</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.16611631969647</v>
+        <v>20.47960523944405</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.16611628181637</v>
+        <v>1.274474972400682</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.1661163136575</v>
+        <v>19.71876673936625</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.16611632243091</v>
+        <v>23.00946620749415</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.1661162877215</v>
+        <v>6.484469386957247</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.16611632213073</v>
+        <v>30.19077749788917</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.16611632995556</v>
+        <v>35.35725314509586</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.16611633394311</v>
+        <v>24.37810222248572</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.16611634529626</v>
+        <v>29.25156817823196</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.16611634918497</v>
+        <v>33.65810722140862</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.16611630875534</v>
+        <v>10.92764742493447</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.16611633851988</v>
+        <v>16.62325572232264</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.16611634686189</v>
+        <v>28.66062132793138</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.16611632541824</v>
+        <v>7.93278663133885</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.16611635669079</v>
+        <v>17.41620093916858</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.16611636641707</v>
+        <v>26.11896637393647</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.16611632130412</v>
+        <v>1.796136989538549</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.16611635557415</v>
+        <v>14.16341043127696</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.16611636677692</v>
+        <v>22.23745029025656</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.16611633121014</v>
+        <v>-1.879072686650492</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.166116369464</v>
+        <v>22.54887718027107</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.16611637906816</v>
+        <v>35.83832964867732</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.16611638006849</v>
+        <v>22.45306380437019</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.16611639483065</v>
+        <v>34.53963618698473</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.16611639995446</v>
+        <v>41.96075004234397</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.16611634990164</v>
+        <v>2.019810269051845</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.16611638646411</v>
+        <v>21.49198110491131</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.16611639519972</v>
+        <v>32.48777576451963</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.16611635778387</v>
+        <v>8.488473514544317</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.16611638945088</v>
+        <v>18.4049749939938</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.16611640024817</v>
+        <v>27.31879037030167</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.16611635246575</v>
+        <v>-0.3021865600383578</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.16611638756438</v>
+        <v>16.62565937964427</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.16611639933254</v>
+        <v>23.10410040852098</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.16611636424995</v>
+        <v>-1.873274253681625</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.16611640305989</v>
+        <v>28.48040226333245</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.16611641364211</v>
+        <v>42.90891211593779</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.16611641190282</v>
+        <v>37.07288262797967</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.16611642656623</v>
+        <v>46.32051581970402</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.16611643054069</v>
+        <v>54.83125939175032</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.16611638072473</v>
+        <v>3.876896808614475</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.16611641658841</v>
+        <v>27.85513707877732</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.16611642610593</v>
+        <v>42.68132031519878</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.16611629394509</v>
+        <v>17.71476897542976</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.16611632005097</v>
+        <v>26.04004165847898</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>28.16611632784301</v>
+        <v>34.52808218069924</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>28.1661162917762</v>
+        <v>6.512052872626288</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.16611632264454</v>
+        <v>34.52055163661359</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>28.16611633068382</v>
+        <v>38.38195128405389</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>28.16611629801077</v>
+        <v>16.1732006094697</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.16611633103805</v>
+        <v>51.80206960277835</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.16611633823023</v>
+        <v>55.6857835264098</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>28.16611634146718</v>
+        <v>41.5281340109059</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>28.16611635214221</v>
+        <v>47.61641181065713</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>28.16611635561595</v>
+        <v>50.26457884943092</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.16611631717415</v>
+        <v>28.28556842660973</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>28.16611634550285</v>
+        <v>35.45447083705137</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.16611635350777</v>
+        <v>51.99993387304626</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.16611633111018</v>
+        <v>21.1243211617772</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>28.16611636097986</v>
+        <v>31.31377720390855</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>28.16611636989419</v>
+        <v>36.57079227205668</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>28.16611632674092</v>
+        <v>3.728999968384883</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.16611635993921</v>
+        <v>23.67103581417931</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.16611637019126</v>
+        <v>28.55075915167183</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.16611633699698</v>
+        <v>7.086778239306565</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>28.1661163736575</v>
+        <v>40.30997779081116</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>28.16611638246445</v>
+        <v>48.08578171718278</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>28.16611638335404</v>
+        <v>39.64446739159134</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>28.16611639709818</v>
+        <v>47.17890696072445</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.16611640165041</v>
+        <v>51.7961746993208</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.16611635436246</v>
+        <v>18.07199572250475</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>28.1661163891353</v>
+        <v>38.63153649705553</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.16611639755904</v>
+        <v>46.90383365810143</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.16611636216151</v>
+        <v>20.1684908528586</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>28.16611639245847</v>
+        <v>31.53941692351216</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.166116402391</v>
+        <v>39.01365927281118</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>28.16611635659377</v>
+        <v>1.694704505396558</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>28.16611639061926</v>
+        <v>26.37553766199659</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>28.16611640137873</v>
+        <v>31.36117945014564</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>28.16611636866596</v>
+        <v>7.708715646983645</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>28.16611640585948</v>
+        <v>47.45272505896381</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>28.16611641560472</v>
+        <v>58.42538711393117</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>28.1661164137915</v>
+        <v>51.30314005782991</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>28.16611642746838</v>
+        <v>60.75645108188174</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>28.16611643103836</v>
+        <v>65.64407018604555</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>28.16611638390723</v>
+        <v>18.40632210616206</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>28.16611641801844</v>
+        <v>46.313136702922</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>28.1661164271339</v>
+        <v>57.90932577831212</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.16611628452011</v>
+        <v>7.498869422628839</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.16611631283875</v>
+        <v>22.93983448498445</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>28.16611632093591</v>
+        <v>29.39670096745539</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.16611628192979</v>
+        <v>0.7680493462236448</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.16611631501291</v>
+        <v>24.97656941620207</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.16611632345235</v>
+        <v>25.4209770473518</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.16611628842313</v>
+        <v>6.083535540476962</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>28.16611632390304</v>
+        <v>43.67951059547762</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>28.16611633142482</v>
+        <v>47.26726127994704</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>28.16611633517546</v>
+        <v>40.07548489837869</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>28.16611634657039</v>
+        <v>46.34338065973188</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>28.16611635024199</v>
+        <v>45.77185823032366</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>28.16611630843876</v>
+        <v>4.946978567891321</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>28.1661163396901</v>
+        <v>28.29678500567955</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.16611634784561</v>
+        <v>37.23060191535935</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.1661163238088</v>
+        <v>9.70360464247911</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.1661163561803</v>
+        <v>26.95583131533952</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.16611636548129</v>
+        <v>32.17186901408295</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.16611631912794</v>
+        <v>0.2042536913099724</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.1661163547462</v>
+        <v>19.73220462081717</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.16611636559532</v>
+        <v>23.06355789965343</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>28.16611632994208</v>
+        <v>0.8284789517567823</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>28.16611636933792</v>
+        <v>36.16300141653997</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>28.16611637861007</v>
+        <v>44.63561809198224</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>28.16611637983692</v>
+        <v>37.54721768830186</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>28.16611639444199</v>
+        <v>47.21756187172575</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.16611639933644</v>
+        <v>49.20150225421889</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>28.16611634819984</v>
+        <v>1.466632857979889</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>28.16611638606117</v>
+        <v>33.49283827800945</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>28.16611639484947</v>
+        <v>41.86219072184636</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.16611635660407</v>
+        <v>9.591309052620014</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.16611638940343</v>
+        <v>27.98838694148353</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>28.16611639985697</v>
+        <v>35.6239788176913</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.166116350776</v>
+        <v>-1.553261939601587</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>28.16611638726431</v>
+        <v>21.9403254805166</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>28.16611639874341</v>
+        <v>24.65619192690895</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.16611636345221</v>
+        <v>-1.355877417572376</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.16611640338193</v>
+        <v>40.18500595654106</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.16611641371214</v>
+        <v>51.53103079455076</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>28.1661164121003</v>
+        <v>47.43427040051225</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.16611642669751</v>
+        <v>58.01110288879045</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>28.16611643052013</v>
+        <v>62.96986381382224</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>28.16611637941684</v>
+        <v>1.569177187554171</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>28.16611641663668</v>
+        <v>39.68838069425431</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>28.16611642620552</v>
+        <v>50.5213363611401</v>
       </c>
     </row>
   </sheetData>
